--- a/documents/common-component-matrix.xlsx
+++ b/documents/common-component-matrix.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DFE\Top15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\github\architecture\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA99E81D-BD3E-4D7C-9BEE-B53C5EF7943F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E4FD6-4EF3-4E1B-9738-18386FA8E02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1740" windowWidth="25170" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Applications" sheetId="1" r:id="rId1"/>
     <sheet name="Mapping Services" sheetId="4" r:id="rId2"/>
     <sheet name="Postcode Applications" sheetId="5" r:id="rId3"/>
     <sheet name="Postcode Services" sheetId="6" r:id="rId4"/>
-    <sheet name="Notification Application" sheetId="7" r:id="rId5"/>
+    <sheet name="Notification Applications" sheetId="7" r:id="rId5"/>
     <sheet name="Notification Services" sheetId="8" r:id="rId6"/>
+    <sheet name="CMS Applications" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1263,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="431">
   <si>
     <t>Azure Maps</t>
   </si>
@@ -2051,12 +2052,742 @@
   <si>
     <t>https://dfedigital.atlassian.net/wiki/spaces/TSTL/pages/1223458929/What+we+use+and+defaults</t>
   </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Contentful</t>
+  </si>
+  <si>
+    <t>Contentstack</t>
+  </si>
+  <si>
+    <t>Kontent</t>
+  </si>
+  <si>
+    <t>Prismic</t>
+  </si>
+  <si>
+    <t>Cosmic JS</t>
+  </si>
+  <si>
+    <t>Sitefinity</t>
+  </si>
+  <si>
+    <t>OrchardCore</t>
+  </si>
+  <si>
+    <t>Weblink</t>
+  </si>
+  <si>
+    <t>https://www.contentful.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.contentstack.com/ </t>
+  </si>
+  <si>
+    <t>https://kontent.ai/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://prismic.io/ </t>
+  </si>
+  <si>
+    <t>https://www.cosmicjs.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.progress.com/sitefinity-cms </t>
+  </si>
+  <si>
+    <t>http://www.orchardcore.net/</t>
+  </si>
+  <si>
+    <t>Licence Type/Pricing Structure</t>
+  </si>
+  <si>
+    <t>Dependent on usecases, specific requirements (inc. specialist language content) and size of service</t>
+  </si>
+  <si>
+    <t>•	On-demand = Pay for the space only
+•	Micro = €420/year (1 master and 1 sandbox environment, 1 role, 2 locales, 24 content types, 5,000 records)
+•	Small = €2,028/year (1 master and 2 sandbox environment, 2 role, 4 locales, 24 content types, 10,000 records)
+•	Medium = €5,268/year (1 master and 3 sandbox environment, 2 role, 7 locales, 48 content types, 25,000 records)
+•	Large = €9,468/year (1 master and 5 sandbox environment, 4 role, 10 locales, 48 content types, 50,000 records, plus GraphQL API)
+•	Enterprise = Pay for the platform + SLA + space
+•	Professional = €24,000+/year (+ space and SLA costs) - custom roles, SSO, full webhook functionality, scheduled publishing
+•	Scale = €90,000+/year (+ space and SLA costs)
+•	High availability = €225,000+/year (+ space and SLA costs)</t>
+  </si>
+  <si>
+    <t>•Business = $3,500/month
+-10 Users
+- 1 Property
+- Content Types
+- Digital Assets Management
+- Rich Text Editor
+- Multiple Environments
+- Modular Blocks (Page Builder)
+- Custom Fields
+•Enterprise = Starts at $10,000/month (requires quotation) and onboarding fee required for first year
+- 10+ Users
+- 3+ Properties
+- Workflows
+- Grouped Releases
+- Bulk Operations
+- Experience Extensions (Integrations)
+- Dashboard
+- Analytics</t>
+  </si>
+  <si>
+    <t>•Starter = Free
+- 3 Users ($10/month per extra user. Max 20 users)
+- Unlimited projects (but without ability to clone)
+- 5,000 Content items
+- 2 Languages
+•Business = $999/month
+- 15 Users ($10/month per extra user. Max 30 users)
+- Unlimited projects
+- 25,000 Content items
+- 10 Languages
+- 1 predefined role + 2 Custom roles
+•Enterprise = Starts at $1,499/month (requires quotation)
+- Custom number of Users
+- Unlimited projects
+- More Content items
+- More Languages
+- More Custom roles</t>
+  </si>
+  <si>
+    <t>•Free and Starter are the cheapest tiers
+•Small = $20/month OR $15/month for annual contract
+- 7 Users
+- Basic Support
+- Core features
+•Professional - Medium = $125/month OR $100/month for annual contract
+- 25 Users
+- SLA (99,5% API Uptime), Basic Support
+- User roles, publication workflow &amp; collaboration features
+•Professional - Platinum = $575/month OR $500/month for annual contract
+- Unlimited users
+- SLA (99,5% API Uptime), Priority Support
+- User roles, publication workflow &amp; collaboration features
+•Enterprise = Starts at $24,000/year (requires quotation)
+- Includes three environments (development, staging, production)
+- SLA (99.95% API Uptime)
+- Daily backups &amp; snapshots
+- SSO and MFA</t>
+  </si>
+  <si>
+    <t>•	Personal Plan provides a free option
+•	Starter = $99/month (10% off for annual)
+- Single Bucket
+- 5 team members
+- 25,000 API requests
+- 10,000 files / 3GB media storage
+•	Pro = $299/month (10% off for annual)
+- Single Bucket
+- 10 team members
+- 150,000 API requests
+- 50,000 files / 15GB media storage
+•	Business = $799/month (10% off for annual)
+- Single Bucket
+- 30 team members
+- 500,000 API requests
+- 100,000 files / 50GB media storage
+•	Enterprise = requires quotation
+- Dedicated Infrastructure
+- Single Sign-on
+- 24/7 Support
+- SLA
+- Migration Support
+- All add-ons included
+- Company workspace</t>
+  </si>
+  <si>
+    <t>•	Professional Edition = Starts at $15,000/year (requires quotation)
+- 1 production domain or server
+- 10 concurrent users
+- Web Content Management
+- Developer Productivity Tools
+•	Online Marketing Edition = Starts at $30,000+/year (requires quotation)
+- 1 production domain
+- 15 concurrent users
+- Web Content Management
+- Developer Productivity Tools
+- Marketing and CRM connectors
+- Content personalisation
+•	Enterprise Edition = Starts at $50,000/year (requires quotation)
+- Unlimited concurrent users
+- Web Content Management
+- Developer Productivity Tools
+- All connectors
+- Content personalisation
+- Site sync between environments
+- Translations management
+- System audit trail</t>
+  </si>
+  <si>
+    <t>Opensource</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>Cloud based or on Prem</t>
+  </si>
+  <si>
+    <t>As a product owner I want a CMS service to develop content so that I can publish digital content online.</t>
+  </si>
+  <si>
+    <t>SaaS</t>
+  </si>
+  <si>
+    <t>PaaS</t>
+  </si>
+  <si>
+    <t>Compatible with Ruby on Rails</t>
+  </si>
+  <si>
+    <t>As a product owner I want….</t>
+  </si>
+  <si>
+    <t>N 
+(.Net platform)</t>
+  </si>
+  <si>
+    <t>Restful API</t>
+  </si>
+  <si>
+    <t>Allows it to communicate with other services and components, using best practice protocols</t>
+  </si>
+  <si>
+    <t>As a product owner I want the CMS to be interoperable with other component and services so that the platform is extensible.</t>
+  </si>
+  <si>
+    <t>Graph QL</t>
+  </si>
+  <si>
+    <t>Query language for APIs</t>
+  </si>
+  <si>
+    <t>As a product owner I want be able to query the data held within the CMS so that I can search for specific information.</t>
+  </si>
+  <si>
+    <t>Supports webhooks</t>
+  </si>
+  <si>
+    <t>Provide real-time event driven information</t>
+  </si>
+  <si>
+    <t>As a product owner I want to use webhooks for my app or platform so that I can provide a real-time without developing an AP.</t>
+  </si>
+  <si>
+    <t>Y
+- Webhooks supported but functionality is limited below Enterprise level (e.g. not possible to trigger a webhook off certain "event" types). Templates and static webhook IPs provided in Enterprise version.</t>
+  </si>
+  <si>
+    <t>Integrations</t>
+  </si>
+  <si>
+    <t>Ability to interface and connect with other platforms and services</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>API
+- Integrates with martech technologies such as Marketo, Salesforce, Google Analytics, SEMrush, Brightcove, Watson, etc.
+- Integrations with Google Docs and Slack are being developed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Integration with task management tools such as Trello, Jira and Asana in the roadmap
+- Delivery API not exposed in free Starter version.</t>
+  </si>
+  <si>
+    <t>API
+- Integrations with Slack being discussed but still in the roadmap</t>
+  </si>
+  <si>
+    <t>API
+-Integration with a number of web services including Slack, GitHub, Google Analytics</t>
+  </si>
+  <si>
+    <t>Integrated with NEO for GraghQL interface/ Sparql (WC3 standard)</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Ability to send and receive messages in different applications</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to send messages from the CMS so other platforms or service so that I can communicate with users.</t>
+  </si>
+  <si>
+    <t>Y
+- Notifications work in Slack as well as email</t>
+  </si>
+  <si>
+    <t>Content Previewing</t>
+  </si>
+  <si>
+    <t>To be able to preview content before it is published online</t>
+  </si>
+  <si>
+    <t>As a product owner I want I want to view my content before it is published online so that I can validate it is correct.</t>
+  </si>
+  <si>
+    <t>Rich Text Format Editor</t>
+  </si>
+  <si>
+    <t>Text formatting options</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to format the text so that it is accessible for the audience.</t>
+  </si>
+  <si>
+    <t>Version History</t>
+  </si>
+  <si>
+    <t>To be able number and keep a log of historic releases</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to view the history of published changes so that I have a record of past versions.</t>
+  </si>
+  <si>
+    <t>Scheduled Publishing</t>
+  </si>
+  <si>
+    <t>Ability to set the time content is to be published</t>
+  </si>
+  <si>
+    <t>As a product owner I want develop and release content at a plannned time so that content is published at the scheduled time.</t>
+  </si>
+  <si>
+    <t>Publishing Approval Workflow</t>
+  </si>
+  <si>
+    <t>Automated approval sign off for content before it is published</t>
+  </si>
+  <si>
+    <t>As a product owner I want changes to content to go through a business approval process so that the necessary checks are in place before publishing.</t>
+  </si>
+  <si>
+    <t>Workflow Tools</t>
+  </si>
+  <si>
+    <t>Ability to define processes and workflows to create, approve and publish content</t>
+  </si>
+  <si>
+    <t>- Content approval Workflows
+- Notifications only available in Enterprise plans
+- Custom roles only available in Enterprise plans
+- Content publishing and expiry scheduling only available in Enterprise plans
+- Content versioning and revision history for all plans</t>
+  </si>
+  <si>
+    <t>- Content publishing and expiry scheduling for all plans
+- Versioning and rollback
+- Built in approval workflows only available in Enterprise version
+- Ability to use webhooks for notifications limited below Enterprise
+- Grouped releases only available in Enterprise version</t>
+  </si>
+  <si>
+    <t>- Request review and approve content workflow (excluding free version)
+- Ability to leave comments and suggest changes for approval (excluding free version)
+- Built in notifications tool (email and Slack)
+- No limit on how webhooks are used for notifications
+- Revision history
+- Content publishing and expiry scheduling (excluding free version)
+- Dashboard view of assignments
+- Calendar view to see upcoming publishing or content expiry dates</t>
+  </si>
+  <si>
+    <t>- User roles limited to three (admin, publisher, writer) with no custom roles
+- Publishing workflow tool available in all plans
+- No limits on how webhooks are used for notifications
+- Release scheduling and bulk publishing for all plans
+- Full revision history</t>
+  </si>
+  <si>
+    <t>- Ability to build content publishing workflow for all plans
+- Zapier used for notifications
+- Scheduled publishing and expiry for all plans
+- Revision history for all plans</t>
+  </si>
+  <si>
+    <t>- Approval workflow tools and user permissions
+- Built in email notification tool
+- No limits on how webhooks are used for notifications
+- Content Publication &amp; Expiration Scheduling for all plans</t>
+  </si>
+  <si>
+    <t>Can develop and edit workflows</t>
+  </si>
+  <si>
+    <t>Multimedia Capability</t>
+  </si>
+  <si>
+    <t>Ability to Support media files such as images, videos, sound files etc</t>
+  </si>
+  <si>
+    <t>As a product owner I want to publish multimedia content so that I can give a rich user experience to the user.</t>
+  </si>
+  <si>
+    <t>- Wide variety of content modelling options- content types include text, dates, rich text, media (images, docs etc.), location, references to other content, arrays and even JSON for data.</t>
+  </si>
+  <si>
+    <t>- Supports all media files such as image link, video link, GIFs etc.
+- Maximum size of a single asset file is 700 MB (this can be restricted further using validation rules).</t>
+  </si>
+  <si>
+    <t>- Asset library supports a range of media types</t>
+  </si>
+  <si>
+    <t>- Every repository on Prismic has its own media library, which supports a range of file types including images, sounds files, videos, pdfs and more.
+- Max image size is 10Mb and max for any other file type is 100Mb
+- Imgix API used to make builds with images easier</t>
+  </si>
+  <si>
+    <t>- Supports a wide variety of media types including video.</t>
+  </si>
+  <si>
+    <t>No image manipulaton/ can use CDL</t>
+  </si>
+  <si>
+    <t>Secure Hosting</t>
+  </si>
+  <si>
+    <t>Hosting that is encrypted at rest and intransit and accessed securley (physical and digital). And hosted in a secure location.</t>
+  </si>
+  <si>
+    <t>As a product owner I want a secure service so that I can deliver content that is security compliant.</t>
+  </si>
+  <si>
+    <t>- Use AWS hosting</t>
+  </si>
+  <si>
+    <t>Multifactor Authentication</t>
+  </si>
+  <si>
+    <t>Enhanced authentication capability</t>
+  </si>
+  <si>
+    <t>As a product owner I want to keep access to the CMS platform secure so that only authorised user can access the platform.</t>
+  </si>
+  <si>
+    <t>Y
+- 2FA is an option even for the free tier but it is not enforced</t>
+  </si>
+  <si>
+    <t>Y
+For Enterprise Plans</t>
+  </si>
+  <si>
+    <t>Y
+Two factor authentication for Enterprise plans</t>
+  </si>
+  <si>
+    <t>- Two-factor authentication included for all plans.</t>
+  </si>
+  <si>
+    <t>- Windows and other authenticator options</t>
+  </si>
+  <si>
+    <t>Requires development and integration into identity provider</t>
+  </si>
+  <si>
+    <t>Security Certification</t>
+  </si>
+  <si>
+    <t>Provider is compliant with required standards</t>
+  </si>
+  <si>
+    <t>As a product owner I want the assurance that the CMS platform provider can demonstrate security compliance so that I know the platform will be secure to deliver my service.</t>
+  </si>
+  <si>
+    <t>Y 
+(ISO 27001:2013 compliant and ISO 27001 compliant data centres)</t>
+  </si>
+  <si>
+    <t>Y
+- SOC 2 Type II certification
+- ISO 27001 Compliant Data Centres - North American &amp; European Datacentres</t>
+  </si>
+  <si>
+    <t>- ISO 9001:2015, ISO 27001:2013 and ISO 20000-1:2011 certifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISO/IEC 27001:2013, ISO/IEC 27017</t>
+  </si>
+  <si>
+    <t>- No ISO certifications</t>
+  </si>
+  <si>
+    <t>- Microsoft Azure infrastructure with ISO/IEC 27018, SOC 2 and more certifications</t>
+  </si>
+  <si>
+    <t>Pen tested by Fidus</t>
+  </si>
+  <si>
+    <t>Custom Roles</t>
+  </si>
+  <si>
+    <t>Ability to granularly control user access</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to define user roles and permissions so that I can control levels of access to the CMS platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Custom roles only available in Enterprise plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y
+In all plans
+</t>
+  </si>
+  <si>
+    <t>Custom roles for all plans</t>
+  </si>
+  <si>
+    <t>Pen Testing</t>
+  </si>
+  <si>
+    <t>Validate that that service has undertaken security assurances</t>
+  </si>
+  <si>
+    <t>As a product owner I want to know that the platform is regularly assessed for risks and vulnerabilities so that I know it is secure to deliver my service.</t>
+  </si>
+  <si>
+    <t>Y 
+(annual)</t>
+  </si>
+  <si>
+    <t>Y
+- Biannual Vulnerability Assessment and Penetration Testing (VAPT)</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>Ability to integrate with other identity services (e.g SAML 2.0 or Oauth)</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to integrate my organisational SSO with the CMS platform so that users can use their corporate identity to access the platorm.</t>
+  </si>
+  <si>
+    <t>Only for enterprise plan</t>
+  </si>
+  <si>
+    <t>SSO with SAML 2.0</t>
+  </si>
+  <si>
+    <t>Single Sign-On for Enterprise plans</t>
+  </si>
+  <si>
+    <t>- Single-Sign-On for all plans</t>
+  </si>
+  <si>
+    <t>Third party sign on</t>
+  </si>
+  <si>
+    <t>Encryption (transit and rest)</t>
+  </si>
+  <si>
+    <t>Ensure all data is securley encrypted in transit and at rest (e.g TLS 1.2)</t>
+  </si>
+  <si>
+    <t>As a product owner I want to keep data secure when being transferred over a network so that we minimise data breaches and risk.</t>
+  </si>
+  <si>
+    <t>Y
+- 256-bit encryption of data in transit and at rest</t>
+  </si>
+  <si>
+    <t>- Data transferred between Prismic AWS EC2 instances and S3 storage facilities is secured via SSL endpoints using the HTTPS protocol. all Content Data is stored On disks in an encrypted manner (encrypted at rest)</t>
+  </si>
+  <si>
+    <t>- Data encryption at rest with 256-bit SSL encryption in transit</t>
+  </si>
+  <si>
+    <t>- Data transfer encryption (TLS 1.2)</t>
+  </si>
+  <si>
+    <t>Security Reporting</t>
+  </si>
+  <si>
+    <t>Insight report into security status and vulnerabilities of the service</t>
+  </si>
+  <si>
+    <t>As a product owner I want regular reports about the security health of the CMS platform so that I know it is secure and that vulnerabilities can be addressed.</t>
+  </si>
+  <si>
+    <t>Usage and activity reports</t>
+  </si>
+  <si>
+    <t>Uses Azure Monitoring</t>
+  </si>
+  <si>
+    <t>Data Soverignty</t>
+  </si>
+  <si>
+    <t>Location where the data is hosted and is subject to location data processsing policy and laws (e.g. GDPR)</t>
+  </si>
+  <si>
+    <t>As a product owner I want my service to be hosted in a secure compliant regional location so that I know my data and service will be secure by laws.</t>
+  </si>
+  <si>
+    <t>USA (Primary) &amp; EU (Backup)
+- Data is all hosted in North America, which could be an issue for any sensitive content</t>
+  </si>
+  <si>
+    <t>EU &amp; USA</t>
+  </si>
+  <si>
+    <t>Can choose - EU/USA/AUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Data hosted in AWS facilities in Virginia, USA </t>
+  </si>
+  <si>
+    <t>Multi Region</t>
+  </si>
+  <si>
+    <t>On own infrastructure</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>First-line and technical support offered to the  organisation</t>
+  </si>
+  <si>
+    <t>As a product owner I want helpdesk support for the CMS platform so that if there any technical issues I can access support.</t>
+  </si>
+  <si>
+    <t>- Direct support only available for Enterprise plans.</t>
+  </si>
+  <si>
+    <t>Y
+- All Contentstack customers receive 24hr (Mon-Fri) support with average response times under 5 minutes. Enterprise plan includes 24/7 support.</t>
+  </si>
+  <si>
+    <t>Y
+- Priority chat and email for Business plan and 24/7x365 chat, email and phone for Enterprise
+- Service availability starts at 99.5% for Enterprise plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y
+Priority Support in Platinum plan
+</t>
+  </si>
+  <si>
+    <t>-16h/day (Mon-Fri) in Professional plan</t>
+  </si>
+  <si>
+    <t>Y 
+(Community support)</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Intuitive and easy to use with mininal training, configurable and accessible for users.</t>
+  </si>
+  <si>
+    <t>As a product owner I want the CMS platform to be easy to use so that I don't need specialist support.</t>
+  </si>
+  <si>
+    <t>- Simple to use WYSIWYG rich text editor
+- Simple content previewing</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing requires publishing to a  "Preview" environment rather than there being a one click preview option (reducing the ease slightly)</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing with in-browser editing</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Drag and drop visual editing
+- Content previewing with in-browser editing feature
+- Page tagging and filtering</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing including mobile devices
+- Drag and drop visual editing
+- Clean Copy &amp; Paste from Microsoft Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- WYSIWYG rich text editor
+</t>
+  </si>
+  <si>
+    <t>Uptime SLA's</t>
+  </si>
+  <si>
+    <t>Availablity and reliability of the service and how quick it is to recover and restore from and outage</t>
+  </si>
+  <si>
+    <t>As a product owner I want the CMS platform to have high availablity so that I can avoid a loss of service or downtime.</t>
+  </si>
+  <si>
+    <t>Y
+- SLA (99,9% API Uptime) 
+- 99.95% of API Uptime in Enterprise version</t>
+  </si>
+  <si>
+    <t>Y (99.9%)</t>
+  </si>
+  <si>
+    <t>PaaS dependent (by design)</t>
+  </si>
+  <si>
+    <t>Other Factors</t>
+  </si>
+  <si>
+    <t>Prices competitive at the mid and enterprise levels. Kontent is an option to give further consideration if looking to invest in the additional functionality that comes with a more premium plan.</t>
+  </si>
+  <si>
+    <t>Lack of ISO certifications rule this vendor out as an option at present. But the prices and features appear very competitive at this mid-level so Cosmic JS may be an option to reconsider in the future.</t>
+  </si>
+  <si>
+    <t>Not compatible with Ruby on Rails (.NET platform).
+Seems to be a decoupled rather than "API-first" headless CMS</t>
+  </si>
+  <si>
+    <t>Existing DfE Experience</t>
+  </si>
+  <si>
+    <t>As a product owner I want to reuse existing CMS patterns, templates and workflows so that I minimise the development time for my service.</t>
+  </si>
+  <si>
+    <t>-ILR
+-Apprenticeship Fire it up
+-Service Manual team</t>
+  </si>
+  <si>
+    <t>No known experience.</t>
+  </si>
+  <si>
+    <t>Used by National Careers Service team.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2141,6 +2872,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2195,7 +2934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2340,6 +3079,63 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2624,23 +3420,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="68.88671875" style="14" customWidth="1"/>
     <col min="5" max="5" width="12" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +3464,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +3487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
@@ -2714,7 +3510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +3533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -2760,7 +3556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +3579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -2806,7 +3602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
@@ -2829,7 +3625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
@@ -2840,7 +3636,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
@@ -2863,7 +3659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
@@ -2886,7 +3682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
@@ -2909,7 +3705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>44</v>
       </c>
@@ -2932,7 +3728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>48</v>
       </c>
@@ -2955,7 +3751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>51</v>
       </c>
@@ -2978,7 +3774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
@@ -3001,7 +3797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>55</v>
       </c>
@@ -3024,7 +3820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>58</v>
       </c>
@@ -3035,7 +3831,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>59</v>
       </c>
@@ -3058,7 +3854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>62</v>
       </c>
@@ -3081,7 +3877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>65</v>
       </c>
@@ -3104,7 +3900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>68</v>
       </c>
@@ -3127,7 +3923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>71</v>
       </c>
@@ -3150,7 +3946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>74</v>
       </c>
@@ -3173,7 +3969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>77</v>
       </c>
@@ -3196,7 +3992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>80</v>
       </c>
@@ -3219,7 +4015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>83</v>
       </c>
@@ -3230,7 +4026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -3256,21 +4052,21 @@
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
@@ -3302,7 +4098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
@@ -3322,7 +4118,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
@@ -3358,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
@@ -3394,7 +4190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3410,7 +4206,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +4222,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3446,7 +4242,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3466,7 +4262,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -3486,7 +4282,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -3506,7 +4302,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
@@ -3526,7 +4322,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -3542,7 +4338,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -3562,7 +4358,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3582,7 +4378,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3598,7 +4394,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3614,7 +4410,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +4426,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
@@ -3646,7 +4442,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3662,7 +4458,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,7 +4478,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
@@ -3698,7 +4494,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3714,7 +4510,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3734,7 +4530,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
@@ -3754,7 +4550,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3770,7 +4566,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
@@ -3786,7 +4582,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
@@ -3802,7 +4598,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
@@ -3818,7 +4614,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
@@ -3834,7 +4630,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>106</v>
       </c>
@@ -3850,7 +4646,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -3891,20 +4687,20 @@
       <selection activeCell="F4" sqref="F4:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>113</v>
       </c>
@@ -3924,7 +4720,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
@@ -3946,7 +4742,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>120</v>
       </c>
@@ -3978,7 +4774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>123</v>
       </c>
@@ -4010,7 +4806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>126</v>
       </c>
@@ -4042,7 +4838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>129</v>
       </c>
@@ -4074,7 +4870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>132</v>
       </c>
@@ -4106,7 +4902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>135</v>
       </c>
@@ -4138,7 +4934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>138</v>
       </c>
@@ -4170,7 +4966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>141</v>
       </c>
@@ -4202,7 +4998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>144</v>
       </c>
@@ -4234,7 +5030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>147</v>
       </c>
@@ -4266,7 +5062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>150</v>
       </c>
@@ -4298,7 +5094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>153</v>
       </c>
@@ -4330,7 +5126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="43"/>
     </row>
   </sheetData>
@@ -4347,20 +5143,20 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
         <v>157</v>
       </c>
@@ -4386,7 +5182,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -4396,7 +5192,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -4406,7 +5202,7 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="25" t="s">
         <v>104</v>
       </c>
@@ -4432,7 +5228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>118</v>
       </c>
@@ -4445,7 +5241,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>120</v>
       </c>
@@ -4458,7 +5254,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
@@ -4471,7 +5267,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>126</v>
       </c>
@@ -4484,7 +5280,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>129</v>
       </c>
@@ -4497,7 +5293,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
@@ -4510,7 +5306,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
@@ -4523,7 +5319,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>138</v>
       </c>
@@ -4536,7 +5332,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>141</v>
       </c>
@@ -4549,7 +5345,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>144</v>
       </c>
@@ -4562,7 +5358,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>147</v>
       </c>
@@ -4575,7 +5371,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -4588,7 +5384,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>153</v>
       </c>
@@ -4601,7 +5397,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>106</v>
       </c>
@@ -4614,7 +5410,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>107</v>
       </c>
@@ -4645,22 +5441,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="42" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="33"/>
       <c r="C2" s="40"/>
       <c r="D2" s="35"/>
@@ -4688,7 +5484,7 @@
       </c>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
       <c r="C3" s="40"/>
       <c r="D3" s="35"/>
@@ -4716,7 +5512,7 @@
       </c>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="33"/>
       <c r="C4" s="40"/>
       <c r="D4" s="35"/>
@@ -4730,7 +5526,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
         <v>177</v>
       </c>
@@ -4752,7 +5548,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>178</v>
       </c>
@@ -4788,7 +5584,7 @@
       </c>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -4824,7 +5620,7 @@
       </c>
       <c r="M7" s="33"/>
     </row>
-    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -4860,7 +5656,7 @@
       </c>
       <c r="M8" s="33"/>
     </row>
-    <row r="9" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>169</v>
       </c>
@@ -4896,7 +5692,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
@@ -4932,7 +5728,7 @@
       </c>
       <c r="M10" s="33"/>
     </row>
-    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>193</v>
       </c>
@@ -4968,7 +5764,7 @@
       </c>
       <c r="M11" s="33"/>
     </row>
-    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>196</v>
       </c>
@@ -5004,7 +5800,7 @@
       </c>
       <c r="M12" s="33"/>
     </row>
-    <row r="13" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>200</v>
       </c>
@@ -5040,7 +5836,7 @@
       </c>
       <c r="M13" s="33"/>
     </row>
-    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>203</v>
       </c>
@@ -5076,7 +5872,7 @@
       </c>
       <c r="M14" s="33"/>
     </row>
-    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>207</v>
       </c>
@@ -5112,7 +5908,7 @@
       </c>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>211</v>
       </c>
@@ -5148,7 +5944,7 @@
       </c>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="2:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>214</v>
       </c>
@@ -5184,7 +5980,7 @@
       </c>
       <c r="M17" s="33"/>
     </row>
-    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>217</v>
       </c>
@@ -5220,7 +6016,7 @@
       </c>
       <c r="M18" s="33"/>
     </row>
-    <row r="19" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
         <v>220</v>
       </c>
@@ -5270,19 +6066,19 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="36" t="s">
         <v>223</v>
       </c>
@@ -5323,7 +6119,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5340,7 +6136,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="2:16" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
         <v>168</v>
       </c>
@@ -5381,7 +6177,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
         <v>118</v>
       </c>
@@ -5400,7 +6196,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="33"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>178</v>
       </c>
@@ -5423,7 +6219,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -5446,7 +6242,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -5469,7 +6265,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>169</v>
       </c>
@@ -5492,7 +6288,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
@@ -5515,7 +6311,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>193</v>
       </c>
@@ -5538,7 +6334,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="33"/>
     </row>
-    <row r="12" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>196</v>
       </c>
@@ -5561,7 +6357,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>200</v>
       </c>
@@ -5584,7 +6380,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>203</v>
       </c>
@@ -5607,7 +6403,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>207</v>
       </c>
@@ -5630,7 +6426,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="33"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>211</v>
       </c>
@@ -5653,7 +6449,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>214</v>
       </c>
@@ -5676,7 +6472,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="33"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>217</v>
       </c>
@@ -5699,7 +6495,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
         <v>220</v>
       </c>
@@ -5722,22 +6518,22 @@
       <c r="O19" s="4"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="K20" s="48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="K21" s="49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="K22" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="72" x14ac:dyDescent="0.3">
       <c r="K23" s="50" t="s">
         <v>244</v>
       </c>
@@ -5753,19 +6549,1094 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11F00D1-5894-4EDF-B883-7004CBBD10B4}">
+  <dimension ref="B2:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.77734375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.5546875" customWidth="1"/>
+    <col min="9" max="10" width="30.21875" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.21875" style="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="216" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="L21" s="62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="L31" s="58"/>
+    </row>
+    <row r="32" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{8BE67516-8BC9-4B31-97EB-B9CCF15D8E23}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{DBF6232F-3EB0-45B2-A888-5587B47340C1}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{8F8E0DDB-244C-4A05-A569-20AB947DBB14}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{93596F5F-9DF7-4097-98FD-306938A4AC95}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{6BD62EFC-A953-492A-987D-41348BEA0602}"/>
+    <hyperlink ref="J3" r:id="rId6" xr:uid="{776565E1-78D4-4F66-BCC7-723FFA35DE82}"/>
+    <hyperlink ref="L3" r:id="rId7" xr:uid="{D7ADECC0-0F30-4B67-8AB4-CAF7400EFC03}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5972,14 +7843,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32AD9959-A697-4819-834E-1AB73008AA4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5992,6 +7855,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="680bcac6-b14c-4c2b-a58b-c019311aeaad"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/common-component-matrix.xlsx
+++ b/documents/common-component-matrix.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DFE\Top15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\github\architecture\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA99E81D-BD3E-4D7C-9BEE-B53C5EF7943F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1EE814-4381-496C-8184-565EDF3AA24F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1740" windowWidth="25170" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Applications" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapping Services" sheetId="4" r:id="rId2"/>
-    <sheet name="Postcode Applications" sheetId="5" r:id="rId3"/>
-    <sheet name="Postcode Services" sheetId="6" r:id="rId4"/>
-    <sheet name="Notification Application" sheetId="7" r:id="rId5"/>
-    <sheet name="Notification Services" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="Mapping Services" sheetId="4" r:id="rId3"/>
+    <sheet name="Postcode Applications" sheetId="5" r:id="rId4"/>
+    <sheet name="Postcode Services" sheetId="6" r:id="rId5"/>
+    <sheet name="Notification Application" sheetId="7" r:id="rId6"/>
+    <sheet name="Notification Services" sheetId="8" r:id="rId7"/>
+    <sheet name="CMS Applications" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1263,7 +1265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="431">
   <si>
     <t>Azure Maps</t>
   </si>
@@ -2051,12 +2053,742 @@
   <si>
     <t>https://dfedigital.atlassian.net/wiki/spaces/TSTL/pages/1223458929/What+we+use+and+defaults</t>
   </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Contentful</t>
+  </si>
+  <si>
+    <t>Contentstack</t>
+  </si>
+  <si>
+    <t>Kontent</t>
+  </si>
+  <si>
+    <t>Prismic</t>
+  </si>
+  <si>
+    <t>Cosmic JS</t>
+  </si>
+  <si>
+    <t>Sitefinity</t>
+  </si>
+  <si>
+    <t>OrchardCore</t>
+  </si>
+  <si>
+    <t>Weblink</t>
+  </si>
+  <si>
+    <t>https://www.contentful.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.contentstack.com/ </t>
+  </si>
+  <si>
+    <t>https://kontent.ai/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://prismic.io/ </t>
+  </si>
+  <si>
+    <t>https://www.cosmicjs.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.progress.com/sitefinity-cms </t>
+  </si>
+  <si>
+    <t>http://www.orchardcore.net/</t>
+  </si>
+  <si>
+    <t>Licence Type/Pricing Structure</t>
+  </si>
+  <si>
+    <t>Dependent on usecases, specific requirements (inc. specialist language content) and size of service</t>
+  </si>
+  <si>
+    <t>•	On-demand = Pay for the space only
+•	Micro = €420/year (1 master and 1 sandbox environment, 1 role, 2 locales, 24 content types, 5,000 records)
+•	Small = €2,028/year (1 master and 2 sandbox environment, 2 role, 4 locales, 24 content types, 10,000 records)
+•	Medium = €5,268/year (1 master and 3 sandbox environment, 2 role, 7 locales, 48 content types, 25,000 records)
+•	Large = €9,468/year (1 master and 5 sandbox environment, 4 role, 10 locales, 48 content types, 50,000 records, plus GraphQL API)
+•	Enterprise = Pay for the platform + SLA + space
+•	Professional = €24,000+/year (+ space and SLA costs) - custom roles, SSO, full webhook functionality, scheduled publishing
+•	Scale = €90,000+/year (+ space and SLA costs)
+•	High availability = €225,000+/year (+ space and SLA costs)</t>
+  </si>
+  <si>
+    <t>•Business = $3,500/month
+-10 Users
+- 1 Property
+- Content Types
+- Digital Assets Management
+- Rich Text Editor
+- Multiple Environments
+- Modular Blocks (Page Builder)
+- Custom Fields
+•Enterprise = Starts at $10,000/month (requires quotation) and onboarding fee required for first year
+- 10+ Users
+- 3+ Properties
+- Workflows
+- Grouped Releases
+- Bulk Operations
+- Experience Extensions (Integrations)
+- Dashboard
+- Analytics</t>
+  </si>
+  <si>
+    <t>•Starter = Free
+- 3 Users ($10/month per extra user. Max 20 users)
+- Unlimited projects (but without ability to clone)
+- 5,000 Content items
+- 2 Languages
+•Business = $999/month
+- 15 Users ($10/month per extra user. Max 30 users)
+- Unlimited projects
+- 25,000 Content items
+- 10 Languages
+- 1 predefined role + 2 Custom roles
+•Enterprise = Starts at $1,499/month (requires quotation)
+- Custom number of Users
+- Unlimited projects
+- More Content items
+- More Languages
+- More Custom roles</t>
+  </si>
+  <si>
+    <t>•Free and Starter are the cheapest tiers
+•Small = $20/month OR $15/month for annual contract
+- 7 Users
+- Basic Support
+- Core features
+•Professional - Medium = $125/month OR $100/month for annual contract
+- 25 Users
+- SLA (99,5% API Uptime), Basic Support
+- User roles, publication workflow &amp; collaboration features
+•Professional - Platinum = $575/month OR $500/month for annual contract
+- Unlimited users
+- SLA (99,5% API Uptime), Priority Support
+- User roles, publication workflow &amp; collaboration features
+•Enterprise = Starts at $24,000/year (requires quotation)
+- Includes three environments (development, staging, production)
+- SLA (99.95% API Uptime)
+- Daily backups &amp; snapshots
+- SSO and MFA</t>
+  </si>
+  <si>
+    <t>•	Personal Plan provides a free option
+•	Starter = $99/month (10% off for annual)
+- Single Bucket
+- 5 team members
+- 25,000 API requests
+- 10,000 files / 3GB media storage
+•	Pro = $299/month (10% off for annual)
+- Single Bucket
+- 10 team members
+- 150,000 API requests
+- 50,000 files / 15GB media storage
+•	Business = $799/month (10% off for annual)
+- Single Bucket
+- 30 team members
+- 500,000 API requests
+- 100,000 files / 50GB media storage
+•	Enterprise = requires quotation
+- Dedicated Infrastructure
+- Single Sign-on
+- 24/7 Support
+- SLA
+- Migration Support
+- All add-ons included
+- Company workspace</t>
+  </si>
+  <si>
+    <t>•	Professional Edition = Starts at $15,000/year (requires quotation)
+- 1 production domain or server
+- 10 concurrent users
+- Web Content Management
+- Developer Productivity Tools
+•	Online Marketing Edition = Starts at $30,000+/year (requires quotation)
+- 1 production domain
+- 15 concurrent users
+- Web Content Management
+- Developer Productivity Tools
+- Marketing and CRM connectors
+- Content personalisation
+•	Enterprise Edition = Starts at $50,000/year (requires quotation)
+- Unlimited concurrent users
+- Web Content Management
+- Developer Productivity Tools
+- All connectors
+- Content personalisation
+- Site sync between environments
+- Translations management
+- System audit trail</t>
+  </si>
+  <si>
+    <t>Opensource</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>Cloud based or on Prem</t>
+  </si>
+  <si>
+    <t>As a product owner I want a CMS service to develop content so that I can publish digital content online.</t>
+  </si>
+  <si>
+    <t>SaaS</t>
+  </si>
+  <si>
+    <t>PaaS</t>
+  </si>
+  <si>
+    <t>Compatible with Ruby on Rails</t>
+  </si>
+  <si>
+    <t>As a product owner I want….</t>
+  </si>
+  <si>
+    <t>N 
+(.Net platform)</t>
+  </si>
+  <si>
+    <t>Restful API</t>
+  </si>
+  <si>
+    <t>Allows it to communicate with other services and components, using best practice protocols</t>
+  </si>
+  <si>
+    <t>As a product owner I want the CMS to be interoperable with other component and services so that the platform is extensible.</t>
+  </si>
+  <si>
+    <t>Graph QL</t>
+  </si>
+  <si>
+    <t>Query language for APIs</t>
+  </si>
+  <si>
+    <t>As a product owner I want be able to query the data held within the CMS so that I can search for specific information.</t>
+  </si>
+  <si>
+    <t>Supports webhooks</t>
+  </si>
+  <si>
+    <t>Provide real-time event driven information</t>
+  </si>
+  <si>
+    <t>As a product owner I want to use webhooks for my app or platform so that I can provide a real-time without developing an AP.</t>
+  </si>
+  <si>
+    <t>Y
+- Webhooks supported but functionality is limited below Enterprise level (e.g. not possible to trigger a webhook off certain "event" types). Templates and static webhook IPs provided in Enterprise version.</t>
+  </si>
+  <si>
+    <t>Integrations</t>
+  </si>
+  <si>
+    <t>Ability to interface and connect with other platforms and services</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>API
+- Integrates with martech technologies such as Marketo, Salesforce, Google Analytics, SEMrush, Brightcove, Watson, etc.
+- Integrations with Google Docs and Slack are being developed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Integration with task management tools such as Trello, Jira and Asana in the roadmap
+- Delivery API not exposed in free Starter version.</t>
+  </si>
+  <si>
+    <t>API
+- Integrations with Slack being discussed but still in the roadmap</t>
+  </si>
+  <si>
+    <t>API
+-Integration with a number of web services including Slack, GitHub, Google Analytics</t>
+  </si>
+  <si>
+    <t>Integrated with NEO for GraghQL interface/ Sparql (WC3 standard)</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Ability to send and receive messages in different applications</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to send messages from the CMS so other platforms or service so that I can communicate with users.</t>
+  </si>
+  <si>
+    <t>Y
+- Notifications work in Slack as well as email</t>
+  </si>
+  <si>
+    <t>Content Previewing</t>
+  </si>
+  <si>
+    <t>To be able to preview content before it is published online</t>
+  </si>
+  <si>
+    <t>As a product owner I want I want to view my content before it is published online so that I can validate it is correct.</t>
+  </si>
+  <si>
+    <t>Rich Text Format Editor</t>
+  </si>
+  <si>
+    <t>Text formatting options</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to format the text so that it is accessible for the audience.</t>
+  </si>
+  <si>
+    <t>Version History</t>
+  </si>
+  <si>
+    <t>To be able number and keep a log of historic releases</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to view the history of published changes so that I have a record of past versions.</t>
+  </si>
+  <si>
+    <t>Scheduled Publishing</t>
+  </si>
+  <si>
+    <t>Ability to set the time content is to be published</t>
+  </si>
+  <si>
+    <t>As a product owner I want develop and release content at a plannned time so that content is published at the scheduled time.</t>
+  </si>
+  <si>
+    <t>Publishing Approval Workflow</t>
+  </si>
+  <si>
+    <t>Automated approval sign off for content before it is published</t>
+  </si>
+  <si>
+    <t>As a product owner I want changes to content to go through a business approval process so that the necessary checks are in place before publishing.</t>
+  </si>
+  <si>
+    <t>Workflow Tools</t>
+  </si>
+  <si>
+    <t>Ability to define processes and workflows to create, approve and publish content</t>
+  </si>
+  <si>
+    <t>- Content approval Workflows
+- Notifications only available in Enterprise plans
+- Custom roles only available in Enterprise plans
+- Content publishing and expiry scheduling only available in Enterprise plans
+- Content versioning and revision history for all plans</t>
+  </si>
+  <si>
+    <t>- Content publishing and expiry scheduling for all plans
+- Versioning and rollback
+- Built in approval workflows only available in Enterprise version
+- Ability to use webhooks for notifications limited below Enterprise
+- Grouped releases only available in Enterprise version</t>
+  </si>
+  <si>
+    <t>- Request review and approve content workflow (excluding free version)
+- Ability to leave comments and suggest changes for approval (excluding free version)
+- Built in notifications tool (email and Slack)
+- No limit on how webhooks are used for notifications
+- Revision history
+- Content publishing and expiry scheduling (excluding free version)
+- Dashboard view of assignments
+- Calendar view to see upcoming publishing or content expiry dates</t>
+  </si>
+  <si>
+    <t>- User roles limited to three (admin, publisher, writer) with no custom roles
+- Publishing workflow tool available in all plans
+- No limits on how webhooks are used for notifications
+- Release scheduling and bulk publishing for all plans
+- Full revision history</t>
+  </si>
+  <si>
+    <t>- Ability to build content publishing workflow for all plans
+- Zapier used for notifications
+- Scheduled publishing and expiry for all plans
+- Revision history for all plans</t>
+  </si>
+  <si>
+    <t>- Approval workflow tools and user permissions
+- Built in email notification tool
+- No limits on how webhooks are used for notifications
+- Content Publication &amp; Expiration Scheduling for all plans</t>
+  </si>
+  <si>
+    <t>Can develop and edit workflows</t>
+  </si>
+  <si>
+    <t>Multimedia Capability</t>
+  </si>
+  <si>
+    <t>Ability to Support media files such as images, videos, sound files etc</t>
+  </si>
+  <si>
+    <t>As a product owner I want to publish multimedia content so that I can give a rich user experience to the user.</t>
+  </si>
+  <si>
+    <t>- Wide variety of content modelling options- content types include text, dates, rich text, media (images, docs etc.), location, references to other content, arrays and even JSON for data.</t>
+  </si>
+  <si>
+    <t>- Supports all media files such as image link, video link, GIFs etc.
+- Maximum size of a single asset file is 700 MB (this can be restricted further using validation rules).</t>
+  </si>
+  <si>
+    <t>- Asset library supports a range of media types</t>
+  </si>
+  <si>
+    <t>- Every repository on Prismic has its own media library, which supports a range of file types including images, sounds files, videos, pdfs and more.
+- Max image size is 10Mb and max for any other file type is 100Mb
+- Imgix API used to make builds with images easier</t>
+  </si>
+  <si>
+    <t>- Supports a wide variety of media types including video.</t>
+  </si>
+  <si>
+    <t>No image manipulaton/ can use CDL</t>
+  </si>
+  <si>
+    <t>Secure Hosting</t>
+  </si>
+  <si>
+    <t>Hosting that is encrypted at rest and intransit and accessed securley (physical and digital). And hosted in a secure location.</t>
+  </si>
+  <si>
+    <t>As a product owner I want a secure service so that I can deliver content that is security compliant.</t>
+  </si>
+  <si>
+    <t>- Use AWS hosting</t>
+  </si>
+  <si>
+    <t>Multifactor Authentication</t>
+  </si>
+  <si>
+    <t>Enhanced authentication capability</t>
+  </si>
+  <si>
+    <t>As a product owner I want to keep access to the CMS platform secure so that only authorised user can access the platform.</t>
+  </si>
+  <si>
+    <t>Y
+- 2FA is an option even for the free tier but it is not enforced</t>
+  </si>
+  <si>
+    <t>Y
+For Enterprise Plans</t>
+  </si>
+  <si>
+    <t>Y
+Two factor authentication for Enterprise plans</t>
+  </si>
+  <si>
+    <t>- Two-factor authentication included for all plans.</t>
+  </si>
+  <si>
+    <t>- Windows and other authenticator options</t>
+  </si>
+  <si>
+    <t>Requires development and integration into identity provider</t>
+  </si>
+  <si>
+    <t>Security Certification</t>
+  </si>
+  <si>
+    <t>Provider is compliant with required standards</t>
+  </si>
+  <si>
+    <t>As a product owner I want the assurance that the CMS platform provider can demonstrate security compliance so that I know the platform will be secure to deliver my service.</t>
+  </si>
+  <si>
+    <t>Y 
+(ISO 27001:2013 compliant and ISO 27001 compliant data centres)</t>
+  </si>
+  <si>
+    <t>Y
+- SOC 2 Type II certification
+- ISO 27001 Compliant Data Centres - North American &amp; European Datacentres</t>
+  </si>
+  <si>
+    <t>- ISO 9001:2015, ISO 27001:2013 and ISO 20000-1:2011 certifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISO/IEC 27001:2013, ISO/IEC 27017</t>
+  </si>
+  <si>
+    <t>- No ISO certifications</t>
+  </si>
+  <si>
+    <t>- Microsoft Azure infrastructure with ISO/IEC 27018, SOC 2 and more certifications</t>
+  </si>
+  <si>
+    <t>Pen tested by Fidus</t>
+  </si>
+  <si>
+    <t>Custom Roles</t>
+  </si>
+  <si>
+    <t>Ability to granularly control user access</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to define user roles and permissions so that I can control levels of access to the CMS platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Custom roles only available in Enterprise plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y
+In all plans
+</t>
+  </si>
+  <si>
+    <t>Custom roles for all plans</t>
+  </si>
+  <si>
+    <t>Pen Testing</t>
+  </si>
+  <si>
+    <t>Validate that that service has undertaken security assurances</t>
+  </si>
+  <si>
+    <t>As a product owner I want to know that the platform is regularly assessed for risks and vulnerabilities so that I know it is secure to deliver my service.</t>
+  </si>
+  <si>
+    <t>Y 
+(annual)</t>
+  </si>
+  <si>
+    <t>Y
+- Biannual Vulnerability Assessment and Penetration Testing (VAPT)</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>Ability to integrate with other identity services (e.g SAML 2.0 or Oauth)</t>
+  </si>
+  <si>
+    <t>As a product owner I want to be able to integrate my organisational SSO with the CMS platform so that users can use their corporate identity to access the platorm.</t>
+  </si>
+  <si>
+    <t>Only for enterprise plan</t>
+  </si>
+  <si>
+    <t>SSO with SAML 2.0</t>
+  </si>
+  <si>
+    <t>Single Sign-On for Enterprise plans</t>
+  </si>
+  <si>
+    <t>- Single-Sign-On for all plans</t>
+  </si>
+  <si>
+    <t>Third party sign on</t>
+  </si>
+  <si>
+    <t>Encryption (transit and rest)</t>
+  </si>
+  <si>
+    <t>Ensure all data is securley encrypted in transit and at rest (e.g TLS 1.2)</t>
+  </si>
+  <si>
+    <t>As a product owner I want to keep data secure when being transferred over a network so that we minimise data breaches and risk.</t>
+  </si>
+  <si>
+    <t>Y
+- 256-bit encryption of data in transit and at rest</t>
+  </si>
+  <si>
+    <t>- Data transferred between Prismic AWS EC2 instances and S3 storage facilities is secured via SSL endpoints using the HTTPS protocol. all Content Data is stored On disks in an encrypted manner (encrypted at rest)</t>
+  </si>
+  <si>
+    <t>- Data encryption at rest with 256-bit SSL encryption in transit</t>
+  </si>
+  <si>
+    <t>- Data transfer encryption (TLS 1.2)</t>
+  </si>
+  <si>
+    <t>Security Reporting</t>
+  </si>
+  <si>
+    <t>Insight report into security status and vulnerabilities of the service</t>
+  </si>
+  <si>
+    <t>As a product owner I want regular reports about the security health of the CMS platform so that I know it is secure and that vulnerabilities can be addressed.</t>
+  </si>
+  <si>
+    <t>Usage and activity reports</t>
+  </si>
+  <si>
+    <t>Uses Azure Monitoring</t>
+  </si>
+  <si>
+    <t>Data Soverignty</t>
+  </si>
+  <si>
+    <t>Location where the data is hosted and is subject to location data processsing policy and laws (e.g. GDPR)</t>
+  </si>
+  <si>
+    <t>As a product owner I want my service to be hosted in a secure compliant regional location so that I know my data and service will be secure by laws.</t>
+  </si>
+  <si>
+    <t>USA (Primary) &amp; EU (Backup)
+- Data is all hosted in North America, which could be an issue for any sensitive content</t>
+  </si>
+  <si>
+    <t>EU &amp; USA</t>
+  </si>
+  <si>
+    <t>Can choose - EU/USA/AUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Data hosted in AWS facilities in Virginia, USA </t>
+  </si>
+  <si>
+    <t>Multi Region</t>
+  </si>
+  <si>
+    <t>On own infrastructure</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>First-line and technical support offered to the  organisation</t>
+  </si>
+  <si>
+    <t>As a product owner I want helpdesk support for the CMS platform so that if there any technical issues I can access support.</t>
+  </si>
+  <si>
+    <t>- Direct support only available for Enterprise plans.</t>
+  </si>
+  <si>
+    <t>Y
+- All Contentstack customers receive 24hr (Mon-Fri) support with average response times under 5 minutes. Enterprise plan includes 24/7 support.</t>
+  </si>
+  <si>
+    <t>Y
+- Priority chat and email for Business plan and 24/7x365 chat, email and phone for Enterprise
+- Service availability starts at 99.5% for Enterprise plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y
+Priority Support in Platinum plan
+</t>
+  </si>
+  <si>
+    <t>-16h/day (Mon-Fri) in Professional plan</t>
+  </si>
+  <si>
+    <t>Y 
+(Community support)</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Intuitive and easy to use with mininal training, configurable and accessible for users.</t>
+  </si>
+  <si>
+    <t>As a product owner I want the CMS platform to be easy to use so that I don't need specialist support.</t>
+  </si>
+  <si>
+    <t>- Simple to use WYSIWYG rich text editor
+- Simple content previewing</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing requires publishing to a  "Preview" environment rather than there being a one click preview option (reducing the ease slightly)</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing with in-browser editing</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Drag and drop visual editing
+- Content previewing with in-browser editing feature
+- Page tagging and filtering</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing</t>
+  </si>
+  <si>
+    <t>- WYSIWYG rich text editor
+- Content previewing including mobile devices
+- Drag and drop visual editing
+- Clean Copy &amp; Paste from Microsoft Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- WYSIWYG rich text editor
+</t>
+  </si>
+  <si>
+    <t>Uptime SLA's</t>
+  </si>
+  <si>
+    <t>Availablity and reliability of the service and how quick it is to recover and restore from and outage</t>
+  </si>
+  <si>
+    <t>As a product owner I want the CMS platform to have high availablity so that I can avoid a loss of service or downtime.</t>
+  </si>
+  <si>
+    <t>Y
+- SLA (99,9% API Uptime) 
+- 99.95% of API Uptime in Enterprise version</t>
+  </si>
+  <si>
+    <t>Y (99.9%)</t>
+  </si>
+  <si>
+    <t>PaaS dependent (by design)</t>
+  </si>
+  <si>
+    <t>Other Factors</t>
+  </si>
+  <si>
+    <t>Prices competitive at the mid and enterprise levels. Kontent is an option to give further consideration if looking to invest in the additional functionality that comes with a more premium plan.</t>
+  </si>
+  <si>
+    <t>Lack of ISO certifications rule this vendor out as an option at present. But the prices and features appear very competitive at this mid-level so Cosmic JS may be an option to reconsider in the future.</t>
+  </si>
+  <si>
+    <t>Not compatible with Ruby on Rails (.NET platform).
+Seems to be a decoupled rather than "API-first" headless CMS</t>
+  </si>
+  <si>
+    <t>Existing DfE Experience</t>
+  </si>
+  <si>
+    <t>As a product owner I want to reuse existing CMS patterns, templates and workflows so that I minimise the development time for my service.</t>
+  </si>
+  <si>
+    <t>-ILR
+-Apprenticeship Fire it up
+-Service Manual team</t>
+  </si>
+  <si>
+    <t>No known experience.</t>
+  </si>
+  <si>
+    <t>Used by National Careers Service team.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2141,6 +2873,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2195,7 +2935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2340,6 +3080,63 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2624,23 +3421,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="68.88671875" style="14" customWidth="1"/>
     <col min="5" max="5" width="12" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +3465,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +3488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
@@ -2714,7 +3511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +3534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -2760,7 +3557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +3580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -2806,7 +3603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
@@ -2829,7 +3626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
@@ -2840,7 +3637,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
@@ -2863,7 +3660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
@@ -2886,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
@@ -2909,7 +3706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>44</v>
       </c>
@@ -2932,7 +3729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>48</v>
       </c>
@@ -2955,7 +3752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>51</v>
       </c>
@@ -2978,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
@@ -3001,7 +3798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>55</v>
       </c>
@@ -3024,7 +3821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>58</v>
       </c>
@@ -3035,7 +3832,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>59</v>
       </c>
@@ -3058,7 +3855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>62</v>
       </c>
@@ -3081,7 +3878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>65</v>
       </c>
@@ -3104,7 +3901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>68</v>
       </c>
@@ -3127,7 +3924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>71</v>
       </c>
@@ -3150,7 +3947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>74</v>
       </c>
@@ -3173,7 +3970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>77</v>
       </c>
@@ -3196,7 +3993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>80</v>
       </c>
@@ -3219,7 +4016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>83</v>
       </c>
@@ -3230,7 +4027,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -3249,6 +4046,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D38F71-65DB-42D2-9179-80C1A6B69FBD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M32"/>
   <sheetViews>
@@ -3256,21 +4065,21 @@
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
@@ -3302,7 +4111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
@@ -3322,7 +4131,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
@@ -3358,7 +4167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
@@ -3394,7 +4203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3410,7 +4219,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +4235,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3446,7 +4255,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3466,7 +4275,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -3486,7 +4295,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -3506,7 +4315,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
@@ -3526,7 +4335,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -3542,7 +4351,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -3562,7 +4371,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3582,7 +4391,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3598,7 +4407,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3614,7 +4423,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +4439,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
@@ -3646,7 +4455,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3662,7 +4471,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,7 +4491,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
@@ -3698,7 +4507,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3714,7 +4523,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3734,7 +4543,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
@@ -3754,7 +4563,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3770,7 +4579,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
@@ -3786,7 +4595,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
@@ -3802,7 +4611,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
@@ -3818,7 +4627,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
@@ -3834,7 +4643,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>106</v>
       </c>
@@ -3850,7 +4659,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -3883,7 +4692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K17"/>
   <sheetViews>
@@ -3891,20 +4700,20 @@
       <selection activeCell="F4" sqref="F4:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>113</v>
       </c>
@@ -3924,7 +4733,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
@@ -3946,7 +4755,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>120</v>
       </c>
@@ -3978,7 +4787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>123</v>
       </c>
@@ -4010,7 +4819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>126</v>
       </c>
@@ -4042,7 +4851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>129</v>
       </c>
@@ -4074,7 +4883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>132</v>
       </c>
@@ -4106,7 +4915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>135</v>
       </c>
@@ -4138,7 +4947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>138</v>
       </c>
@@ -4170,7 +4979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>141</v>
       </c>
@@ -4202,7 +5011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>144</v>
       </c>
@@ -4234,7 +5043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>147</v>
       </c>
@@ -4266,7 +5075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>150</v>
       </c>
@@ -4298,7 +5107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>153</v>
       </c>
@@ -4330,7 +5139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="43"/>
     </row>
   </sheetData>
@@ -4339,7 +5148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:J20"/>
   <sheetViews>
@@ -4347,20 +5156,20 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
         <v>157</v>
       </c>
@@ -4386,7 +5195,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -4396,7 +5205,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -4406,7 +5215,7 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="25" t="s">
         <v>104</v>
       </c>
@@ -4432,7 +5241,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>118</v>
       </c>
@@ -4445,7 +5254,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>120</v>
       </c>
@@ -4458,7 +5267,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
@@ -4471,7 +5280,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>126</v>
       </c>
@@ -4484,7 +5293,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>129</v>
       </c>
@@ -4497,7 +5306,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
@@ -4510,7 +5319,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
@@ -4523,7 +5332,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>138</v>
       </c>
@@ -4536,7 +5345,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>141</v>
       </c>
@@ -4549,7 +5358,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>144</v>
       </c>
@@ -4562,7 +5371,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>147</v>
       </c>
@@ -4575,7 +5384,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -4588,7 +5397,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>153</v>
       </c>
@@ -4601,7 +5410,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>106</v>
       </c>
@@ -4614,7 +5423,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>107</v>
       </c>
@@ -4637,7 +5446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M19"/>
   <sheetViews>
@@ -4645,22 +5454,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="42" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="33"/>
       <c r="C2" s="40"/>
       <c r="D2" s="35"/>
@@ -4688,7 +5497,7 @@
       </c>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
       <c r="C3" s="40"/>
       <c r="D3" s="35"/>
@@ -4716,7 +5525,7 @@
       </c>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="33"/>
       <c r="C4" s="40"/>
       <c r="D4" s="35"/>
@@ -4730,7 +5539,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
         <v>177</v>
       </c>
@@ -4752,7 +5561,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>178</v>
       </c>
@@ -4788,7 +5597,7 @@
       </c>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -4824,7 +5633,7 @@
       </c>
       <c r="M7" s="33"/>
     </row>
-    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -4860,7 +5669,7 @@
       </c>
       <c r="M8" s="33"/>
     </row>
-    <row r="9" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>169</v>
       </c>
@@ -4896,7 +5705,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
@@ -4932,7 +5741,7 @@
       </c>
       <c r="M10" s="33"/>
     </row>
-    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>193</v>
       </c>
@@ -4968,7 +5777,7 @@
       </c>
       <c r="M11" s="33"/>
     </row>
-    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>196</v>
       </c>
@@ -5004,7 +5813,7 @@
       </c>
       <c r="M12" s="33"/>
     </row>
-    <row r="13" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>200</v>
       </c>
@@ -5040,7 +5849,7 @@
       </c>
       <c r="M13" s="33"/>
     </row>
-    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>203</v>
       </c>
@@ -5076,7 +5885,7 @@
       </c>
       <c r="M14" s="33"/>
     </row>
-    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>207</v>
       </c>
@@ -5112,7 +5921,7 @@
       </c>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>211</v>
       </c>
@@ -5148,7 +5957,7 @@
       </c>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="2:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>214</v>
       </c>
@@ -5184,7 +5993,7 @@
       </c>
       <c r="M17" s="33"/>
     </row>
-    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>217</v>
       </c>
@@ -5220,7 +6029,7 @@
       </c>
       <c r="M18" s="33"/>
     </row>
-    <row r="19" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
         <v>220</v>
       </c>
@@ -5262,7 +6071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P23"/>
   <sheetViews>
@@ -5270,19 +6079,19 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="36" t="s">
         <v>223</v>
       </c>
@@ -5323,7 +6132,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5340,7 +6149,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="2:16" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
         <v>168</v>
       </c>
@@ -5381,7 +6190,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
         <v>118</v>
       </c>
@@ -5400,7 +6209,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="33"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>178</v>
       </c>
@@ -5423,7 +6232,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -5446,7 +6255,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -5469,7 +6278,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>169</v>
       </c>
@@ -5492,7 +6301,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
@@ -5515,7 +6324,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>193</v>
       </c>
@@ -5538,7 +6347,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="33"/>
     </row>
-    <row r="12" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>196</v>
       </c>
@@ -5561,7 +6370,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>200</v>
       </c>
@@ -5584,7 +6393,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>203</v>
       </c>
@@ -5607,7 +6416,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>207</v>
       </c>
@@ -5630,7 +6439,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="33"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>211</v>
       </c>
@@ -5653,7 +6462,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>214</v>
       </c>
@@ -5676,7 +6485,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="33"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>217</v>
       </c>
@@ -5699,7 +6508,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
         <v>220</v>
       </c>
@@ -5722,22 +6531,22 @@
       <c r="O19" s="4"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="K20" s="48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="K21" s="49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="K22" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="72" x14ac:dyDescent="0.3">
       <c r="K23" s="50" t="s">
         <v>244</v>
       </c>
@@ -5753,22 +6562,1085 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CFD866-DE87-41D5-BE31-43FB6D2DE716}">
+  <dimension ref="B2:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.77734375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.5546875" customWidth="1"/>
+    <col min="9" max="10" width="30.21875" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.21875" style="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="270.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="L21" s="62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="112.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="L31" s="58"/>
+    </row>
+    <row r="32" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{71BC4B22-CCEF-4EA5-8A95-5A3A4D4B5EF9}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{4F8CB76F-DCE3-43A8-97FB-7E485E0FC38D}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{23C6D77B-538B-40AB-A6D4-772DDEB582BE}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{55ED426A-5DA9-4E47-A769-89669434E55B}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{FCB86B0D-9681-4F78-AD71-C398F6C5B7D4}"/>
+    <hyperlink ref="J3" r:id="rId6" xr:uid="{46F94EBA-7865-48C6-B065-4D110AE97818}"/>
+    <hyperlink ref="L3" r:id="rId7" xr:uid="{B6ABF243-587B-4246-8761-BB7C0832C12D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B57151A7873D3B4CB38449F1E4CD2EAA" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e8202c7bfeeae60ce525a5ca4d0fe6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="161ae125-8199-47a3-b5d9-eda3a8f2a061" xmlns:ns4="680bcac6-b14c-4c2b-a58b-c019311aeaad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1abf75ed68cd583d13418a16f207a9e6" ns3:_="" ns4:_="">
     <xsd:import namespace="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
@@ -5971,10 +7843,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4651E139-BFC7-495A-9CCD-06709AD31B99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
+    <ds:schemaRef ds:uri="680bcac6-b14c-4c2b-a58b-c019311aeaad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5997,20 +7895,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4651E139-BFC7-495A-9CCD-06709AD31B99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
-    <ds:schemaRef ds:uri="680bcac6-b14c-4c2b-a58b-c019311aeaad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/common-component-matrix.xlsx
+++ b/documents/common-component-matrix.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\github\architecture\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DFE\Top15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1EE814-4381-496C-8184-565EDF3AA24F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA99E81D-BD3E-4D7C-9BEE-B53C5EF7943F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="1740" windowWidth="25170" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Applications" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="Mapping Services" sheetId="4" r:id="rId3"/>
-    <sheet name="Postcode Applications" sheetId="5" r:id="rId4"/>
-    <sheet name="Postcode Services" sheetId="6" r:id="rId5"/>
-    <sheet name="Notification Application" sheetId="7" r:id="rId6"/>
-    <sheet name="Notification Services" sheetId="8" r:id="rId7"/>
-    <sheet name="CMS Applications" sheetId="11" r:id="rId8"/>
+    <sheet name="Mapping Services" sheetId="4" r:id="rId2"/>
+    <sheet name="Postcode Applications" sheetId="5" r:id="rId3"/>
+    <sheet name="Postcode Services" sheetId="6" r:id="rId4"/>
+    <sheet name="Notification Application" sheetId="7" r:id="rId5"/>
+    <sheet name="Notification Services" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1265,7 +1263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="245">
   <si>
     <t>Azure Maps</t>
   </si>
@@ -2053,742 +2051,12 @@
   <si>
     <t>https://dfedigital.atlassian.net/wiki/spaces/TSTL/pages/1223458929/What+we+use+and+defaults</t>
   </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Contentful</t>
-  </si>
-  <si>
-    <t>Contentstack</t>
-  </si>
-  <si>
-    <t>Kontent</t>
-  </si>
-  <si>
-    <t>Prismic</t>
-  </si>
-  <si>
-    <t>Cosmic JS</t>
-  </si>
-  <si>
-    <t>Sitefinity</t>
-  </si>
-  <si>
-    <t>OrchardCore</t>
-  </si>
-  <si>
-    <t>Weblink</t>
-  </si>
-  <si>
-    <t>https://www.contentful.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.contentstack.com/ </t>
-  </si>
-  <si>
-    <t>https://kontent.ai/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://prismic.io/ </t>
-  </si>
-  <si>
-    <t>https://www.cosmicjs.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.progress.com/sitefinity-cms </t>
-  </si>
-  <si>
-    <t>http://www.orchardcore.net/</t>
-  </si>
-  <si>
-    <t>Licence Type/Pricing Structure</t>
-  </si>
-  <si>
-    <t>Dependent on usecases, specific requirements (inc. specialist language content) and size of service</t>
-  </si>
-  <si>
-    <t>•	On-demand = Pay for the space only
-•	Micro = €420/year (1 master and 1 sandbox environment, 1 role, 2 locales, 24 content types, 5,000 records)
-•	Small = €2,028/year (1 master and 2 sandbox environment, 2 role, 4 locales, 24 content types, 10,000 records)
-•	Medium = €5,268/year (1 master and 3 sandbox environment, 2 role, 7 locales, 48 content types, 25,000 records)
-•	Large = €9,468/year (1 master and 5 sandbox environment, 4 role, 10 locales, 48 content types, 50,000 records, plus GraphQL API)
-•	Enterprise = Pay for the platform + SLA + space
-•	Professional = €24,000+/year (+ space and SLA costs) - custom roles, SSO, full webhook functionality, scheduled publishing
-•	Scale = €90,000+/year (+ space and SLA costs)
-•	High availability = €225,000+/year (+ space and SLA costs)</t>
-  </si>
-  <si>
-    <t>•Business = $3,500/month
--10 Users
-- 1 Property
-- Content Types
-- Digital Assets Management
-- Rich Text Editor
-- Multiple Environments
-- Modular Blocks (Page Builder)
-- Custom Fields
-•Enterprise = Starts at $10,000/month (requires quotation) and onboarding fee required for first year
-- 10+ Users
-- 3+ Properties
-- Workflows
-- Grouped Releases
-- Bulk Operations
-- Experience Extensions (Integrations)
-- Dashboard
-- Analytics</t>
-  </si>
-  <si>
-    <t>•Starter = Free
-- 3 Users ($10/month per extra user. Max 20 users)
-- Unlimited projects (but without ability to clone)
-- 5,000 Content items
-- 2 Languages
-•Business = $999/month
-- 15 Users ($10/month per extra user. Max 30 users)
-- Unlimited projects
-- 25,000 Content items
-- 10 Languages
-- 1 predefined role + 2 Custom roles
-•Enterprise = Starts at $1,499/month (requires quotation)
-- Custom number of Users
-- Unlimited projects
-- More Content items
-- More Languages
-- More Custom roles</t>
-  </si>
-  <si>
-    <t>•Free and Starter are the cheapest tiers
-•Small = $20/month OR $15/month for annual contract
-- 7 Users
-- Basic Support
-- Core features
-•Professional - Medium = $125/month OR $100/month for annual contract
-- 25 Users
-- SLA (99,5% API Uptime), Basic Support
-- User roles, publication workflow &amp; collaboration features
-•Professional - Platinum = $575/month OR $500/month for annual contract
-- Unlimited users
-- SLA (99,5% API Uptime), Priority Support
-- User roles, publication workflow &amp; collaboration features
-•Enterprise = Starts at $24,000/year (requires quotation)
-- Includes three environments (development, staging, production)
-- SLA (99.95% API Uptime)
-- Daily backups &amp; snapshots
-- SSO and MFA</t>
-  </si>
-  <si>
-    <t>•	Personal Plan provides a free option
-•	Starter = $99/month (10% off for annual)
-- Single Bucket
-- 5 team members
-- 25,000 API requests
-- 10,000 files / 3GB media storage
-•	Pro = $299/month (10% off for annual)
-- Single Bucket
-- 10 team members
-- 150,000 API requests
-- 50,000 files / 15GB media storage
-•	Business = $799/month (10% off for annual)
-- Single Bucket
-- 30 team members
-- 500,000 API requests
-- 100,000 files / 50GB media storage
-•	Enterprise = requires quotation
-- Dedicated Infrastructure
-- Single Sign-on
-- 24/7 Support
-- SLA
-- Migration Support
-- All add-ons included
-- Company workspace</t>
-  </si>
-  <si>
-    <t>•	Professional Edition = Starts at $15,000/year (requires quotation)
-- 1 production domain or server
-- 10 concurrent users
-- Web Content Management
-- Developer Productivity Tools
-•	Online Marketing Edition = Starts at $30,000+/year (requires quotation)
-- 1 production domain
-- 15 concurrent users
-- Web Content Management
-- Developer Productivity Tools
-- Marketing and CRM connectors
-- Content personalisation
-•	Enterprise Edition = Starts at $50,000/year (requires quotation)
-- Unlimited concurrent users
-- Web Content Management
-- Developer Productivity Tools
-- All connectors
-- Content personalisation
-- Site sync between environments
-- Translations management
-- System audit trail</t>
-  </si>
-  <si>
-    <t>Opensource</t>
-  </si>
-  <si>
-    <t>Service Type</t>
-  </si>
-  <si>
-    <t>Cloud based or on Prem</t>
-  </si>
-  <si>
-    <t>As a product owner I want a CMS service to develop content so that I can publish digital content online.</t>
-  </si>
-  <si>
-    <t>SaaS</t>
-  </si>
-  <si>
-    <t>PaaS</t>
-  </si>
-  <si>
-    <t>Compatible with Ruby on Rails</t>
-  </si>
-  <si>
-    <t>As a product owner I want….</t>
-  </si>
-  <si>
-    <t>N 
-(.Net platform)</t>
-  </si>
-  <si>
-    <t>Restful API</t>
-  </si>
-  <si>
-    <t>Allows it to communicate with other services and components, using best practice protocols</t>
-  </si>
-  <si>
-    <t>As a product owner I want the CMS to be interoperable with other component and services so that the platform is extensible.</t>
-  </si>
-  <si>
-    <t>Graph QL</t>
-  </si>
-  <si>
-    <t>Query language for APIs</t>
-  </si>
-  <si>
-    <t>As a product owner I want be able to query the data held within the CMS so that I can search for specific information.</t>
-  </si>
-  <si>
-    <t>Supports webhooks</t>
-  </si>
-  <si>
-    <t>Provide real-time event driven information</t>
-  </si>
-  <si>
-    <t>As a product owner I want to use webhooks for my app or platform so that I can provide a real-time without developing an AP.</t>
-  </si>
-  <si>
-    <t>Y
-- Webhooks supported but functionality is limited below Enterprise level (e.g. not possible to trigger a webhook off certain "event" types). Templates and static webhook IPs provided in Enterprise version.</t>
-  </si>
-  <si>
-    <t>Integrations</t>
-  </si>
-  <si>
-    <t>Ability to interface and connect with other platforms and services</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>API
-- Integrates with martech technologies such as Marketo, Salesforce, Google Analytics, SEMrush, Brightcove, Watson, etc.
-- Integrations with Google Docs and Slack are being developed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Integration with task management tools such as Trello, Jira and Asana in the roadmap
-- Delivery API not exposed in free Starter version.</t>
-  </si>
-  <si>
-    <t>API
-- Integrations with Slack being discussed but still in the roadmap</t>
-  </si>
-  <si>
-    <t>API
--Integration with a number of web services including Slack, GitHub, Google Analytics</t>
-  </si>
-  <si>
-    <t>Integrated with NEO for GraghQL interface/ Sparql (WC3 standard)</t>
-  </si>
-  <si>
-    <t>Notifications</t>
-  </si>
-  <si>
-    <t>Ability to send and receive messages in different applications</t>
-  </si>
-  <si>
-    <t>As a product owner I want to be able to send messages from the CMS so other platforms or service so that I can communicate with users.</t>
-  </si>
-  <si>
-    <t>Y
-- Notifications work in Slack as well as email</t>
-  </si>
-  <si>
-    <t>Content Previewing</t>
-  </si>
-  <si>
-    <t>To be able to preview content before it is published online</t>
-  </si>
-  <si>
-    <t>As a product owner I want I want to view my content before it is published online so that I can validate it is correct.</t>
-  </si>
-  <si>
-    <t>Rich Text Format Editor</t>
-  </si>
-  <si>
-    <t>Text formatting options</t>
-  </si>
-  <si>
-    <t>As a product owner I want to be able to format the text so that it is accessible for the audience.</t>
-  </si>
-  <si>
-    <t>Version History</t>
-  </si>
-  <si>
-    <t>To be able number and keep a log of historic releases</t>
-  </si>
-  <si>
-    <t>As a product owner I want to be able to view the history of published changes so that I have a record of past versions.</t>
-  </si>
-  <si>
-    <t>Scheduled Publishing</t>
-  </si>
-  <si>
-    <t>Ability to set the time content is to be published</t>
-  </si>
-  <si>
-    <t>As a product owner I want develop and release content at a plannned time so that content is published at the scheduled time.</t>
-  </si>
-  <si>
-    <t>Publishing Approval Workflow</t>
-  </si>
-  <si>
-    <t>Automated approval sign off for content before it is published</t>
-  </si>
-  <si>
-    <t>As a product owner I want changes to content to go through a business approval process so that the necessary checks are in place before publishing.</t>
-  </si>
-  <si>
-    <t>Workflow Tools</t>
-  </si>
-  <si>
-    <t>Ability to define processes and workflows to create, approve and publish content</t>
-  </si>
-  <si>
-    <t>- Content approval Workflows
-- Notifications only available in Enterprise plans
-- Custom roles only available in Enterprise plans
-- Content publishing and expiry scheduling only available in Enterprise plans
-- Content versioning and revision history for all plans</t>
-  </si>
-  <si>
-    <t>- Content publishing and expiry scheduling for all plans
-- Versioning and rollback
-- Built in approval workflows only available in Enterprise version
-- Ability to use webhooks for notifications limited below Enterprise
-- Grouped releases only available in Enterprise version</t>
-  </si>
-  <si>
-    <t>- Request review and approve content workflow (excluding free version)
-- Ability to leave comments and suggest changes for approval (excluding free version)
-- Built in notifications tool (email and Slack)
-- No limit on how webhooks are used for notifications
-- Revision history
-- Content publishing and expiry scheduling (excluding free version)
-- Dashboard view of assignments
-- Calendar view to see upcoming publishing or content expiry dates</t>
-  </si>
-  <si>
-    <t>- User roles limited to three (admin, publisher, writer) with no custom roles
-- Publishing workflow tool available in all plans
-- No limits on how webhooks are used for notifications
-- Release scheduling and bulk publishing for all plans
-- Full revision history</t>
-  </si>
-  <si>
-    <t>- Ability to build content publishing workflow for all plans
-- Zapier used for notifications
-- Scheduled publishing and expiry for all plans
-- Revision history for all plans</t>
-  </si>
-  <si>
-    <t>- Approval workflow tools and user permissions
-- Built in email notification tool
-- No limits on how webhooks are used for notifications
-- Content Publication &amp; Expiration Scheduling for all plans</t>
-  </si>
-  <si>
-    <t>Can develop and edit workflows</t>
-  </si>
-  <si>
-    <t>Multimedia Capability</t>
-  </si>
-  <si>
-    <t>Ability to Support media files such as images, videos, sound files etc</t>
-  </si>
-  <si>
-    <t>As a product owner I want to publish multimedia content so that I can give a rich user experience to the user.</t>
-  </si>
-  <si>
-    <t>- Wide variety of content modelling options- content types include text, dates, rich text, media (images, docs etc.), location, references to other content, arrays and even JSON for data.</t>
-  </si>
-  <si>
-    <t>- Supports all media files such as image link, video link, GIFs etc.
-- Maximum size of a single asset file is 700 MB (this can be restricted further using validation rules).</t>
-  </si>
-  <si>
-    <t>- Asset library supports a range of media types</t>
-  </si>
-  <si>
-    <t>- Every repository on Prismic has its own media library, which supports a range of file types including images, sounds files, videos, pdfs and more.
-- Max image size is 10Mb and max for any other file type is 100Mb
-- Imgix API used to make builds with images easier</t>
-  </si>
-  <si>
-    <t>- Supports a wide variety of media types including video.</t>
-  </si>
-  <si>
-    <t>No image manipulaton/ can use CDL</t>
-  </si>
-  <si>
-    <t>Secure Hosting</t>
-  </si>
-  <si>
-    <t>Hosting that is encrypted at rest and intransit and accessed securley (physical and digital). And hosted in a secure location.</t>
-  </si>
-  <si>
-    <t>As a product owner I want a secure service so that I can deliver content that is security compliant.</t>
-  </si>
-  <si>
-    <t>- Use AWS hosting</t>
-  </si>
-  <si>
-    <t>Multifactor Authentication</t>
-  </si>
-  <si>
-    <t>Enhanced authentication capability</t>
-  </si>
-  <si>
-    <t>As a product owner I want to keep access to the CMS platform secure so that only authorised user can access the platform.</t>
-  </si>
-  <si>
-    <t>Y
-- 2FA is an option even for the free tier but it is not enforced</t>
-  </si>
-  <si>
-    <t>Y
-For Enterprise Plans</t>
-  </si>
-  <si>
-    <t>Y
-Two factor authentication for Enterprise plans</t>
-  </si>
-  <si>
-    <t>- Two-factor authentication included for all plans.</t>
-  </si>
-  <si>
-    <t>- Windows and other authenticator options</t>
-  </si>
-  <si>
-    <t>Requires development and integration into identity provider</t>
-  </si>
-  <si>
-    <t>Security Certification</t>
-  </si>
-  <si>
-    <t>Provider is compliant with required standards</t>
-  </si>
-  <si>
-    <t>As a product owner I want the assurance that the CMS platform provider can demonstrate security compliance so that I know the platform will be secure to deliver my service.</t>
-  </si>
-  <si>
-    <t>Y 
-(ISO 27001:2013 compliant and ISO 27001 compliant data centres)</t>
-  </si>
-  <si>
-    <t>Y
-- SOC 2 Type II certification
-- ISO 27001 Compliant Data Centres - North American &amp; European Datacentres</t>
-  </si>
-  <si>
-    <t>- ISO 9001:2015, ISO 27001:2013 and ISO 20000-1:2011 certifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ISO/IEC 27001:2013, ISO/IEC 27017</t>
-  </si>
-  <si>
-    <t>- No ISO certifications</t>
-  </si>
-  <si>
-    <t>- Microsoft Azure infrastructure with ISO/IEC 27018, SOC 2 and more certifications</t>
-  </si>
-  <si>
-    <t>Pen tested by Fidus</t>
-  </si>
-  <si>
-    <t>Custom Roles</t>
-  </si>
-  <si>
-    <t>Ability to granularly control user access</t>
-  </si>
-  <si>
-    <t>As a product owner I want to be able to define user roles and permissions so that I can control levels of access to the CMS platform.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Custom roles only available in Enterprise plans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y
-In all plans
-</t>
-  </si>
-  <si>
-    <t>Custom roles for all plans</t>
-  </si>
-  <si>
-    <t>Pen Testing</t>
-  </si>
-  <si>
-    <t>Validate that that service has undertaken security assurances</t>
-  </si>
-  <si>
-    <t>As a product owner I want to know that the platform is regularly assessed for risks and vulnerabilities so that I know it is secure to deliver my service.</t>
-  </si>
-  <si>
-    <t>Y 
-(annual)</t>
-  </si>
-  <si>
-    <t>Y
-- Biannual Vulnerability Assessment and Penetration Testing (VAPT)</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>SSO</t>
-  </si>
-  <si>
-    <t>Ability to integrate with other identity services (e.g SAML 2.0 or Oauth)</t>
-  </si>
-  <si>
-    <t>As a product owner I want to be able to integrate my organisational SSO with the CMS platform so that users can use their corporate identity to access the platorm.</t>
-  </si>
-  <si>
-    <t>Only for enterprise plan</t>
-  </si>
-  <si>
-    <t>SSO with SAML 2.0</t>
-  </si>
-  <si>
-    <t>Single Sign-On for Enterprise plans</t>
-  </si>
-  <si>
-    <t>- Single-Sign-On for all plans</t>
-  </si>
-  <si>
-    <t>Third party sign on</t>
-  </si>
-  <si>
-    <t>Encryption (transit and rest)</t>
-  </si>
-  <si>
-    <t>Ensure all data is securley encrypted in transit and at rest (e.g TLS 1.2)</t>
-  </si>
-  <si>
-    <t>As a product owner I want to keep data secure when being transferred over a network so that we minimise data breaches and risk.</t>
-  </si>
-  <si>
-    <t>Y
-- 256-bit encryption of data in transit and at rest</t>
-  </si>
-  <si>
-    <t>- Data transferred between Prismic AWS EC2 instances and S3 storage facilities is secured via SSL endpoints using the HTTPS protocol. all Content Data is stored On disks in an encrypted manner (encrypted at rest)</t>
-  </si>
-  <si>
-    <t>- Data encryption at rest with 256-bit SSL encryption in transit</t>
-  </si>
-  <si>
-    <t>- Data transfer encryption (TLS 1.2)</t>
-  </si>
-  <si>
-    <t>Security Reporting</t>
-  </si>
-  <si>
-    <t>Insight report into security status and vulnerabilities of the service</t>
-  </si>
-  <si>
-    <t>As a product owner I want regular reports about the security health of the CMS platform so that I know it is secure and that vulnerabilities can be addressed.</t>
-  </si>
-  <si>
-    <t>Usage and activity reports</t>
-  </si>
-  <si>
-    <t>Uses Azure Monitoring</t>
-  </si>
-  <si>
-    <t>Data Soverignty</t>
-  </si>
-  <si>
-    <t>Location where the data is hosted and is subject to location data processsing policy and laws (e.g. GDPR)</t>
-  </si>
-  <si>
-    <t>As a product owner I want my service to be hosted in a secure compliant regional location so that I know my data and service will be secure by laws.</t>
-  </si>
-  <si>
-    <t>USA (Primary) &amp; EU (Backup)
-- Data is all hosted in North America, which could be an issue for any sensitive content</t>
-  </si>
-  <si>
-    <t>EU &amp; USA</t>
-  </si>
-  <si>
-    <t>Can choose - EU/USA/AUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Data hosted in AWS facilities in Virginia, USA </t>
-  </si>
-  <si>
-    <t>Multi Region</t>
-  </si>
-  <si>
-    <t>On own infrastructure</t>
-  </si>
-  <si>
-    <t>Customer Support</t>
-  </si>
-  <si>
-    <t>First-line and technical support offered to the  organisation</t>
-  </si>
-  <si>
-    <t>As a product owner I want helpdesk support for the CMS platform so that if there any technical issues I can access support.</t>
-  </si>
-  <si>
-    <t>- Direct support only available for Enterprise plans.</t>
-  </si>
-  <si>
-    <t>Y
-- All Contentstack customers receive 24hr (Mon-Fri) support with average response times under 5 minutes. Enterprise plan includes 24/7 support.</t>
-  </si>
-  <si>
-    <t>Y
-- Priority chat and email for Business plan and 24/7x365 chat, email and phone for Enterprise
-- Service availability starts at 99.5% for Enterprise plans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y
-Priority Support in Platinum plan
-</t>
-  </si>
-  <si>
-    <t>-16h/day (Mon-Fri) in Professional plan</t>
-  </si>
-  <si>
-    <t>Y 
-(Community support)</t>
-  </si>
-  <si>
-    <t>Usability</t>
-  </si>
-  <si>
-    <t>Intuitive and easy to use with mininal training, configurable and accessible for users.</t>
-  </si>
-  <si>
-    <t>As a product owner I want the CMS platform to be easy to use so that I don't need specialist support.</t>
-  </si>
-  <si>
-    <t>- Simple to use WYSIWYG rich text editor
-- Simple content previewing</t>
-  </si>
-  <si>
-    <t>- WYSIWYG rich text editor
-- Content previewing requires publishing to a  "Preview" environment rather than there being a one click preview option (reducing the ease slightly)</t>
-  </si>
-  <si>
-    <t>- WYSIWYG rich text editor
-- Content previewing with in-browser editing</t>
-  </si>
-  <si>
-    <t>- WYSIWYG rich text editor
-- Drag and drop visual editing
-- Content previewing with in-browser editing feature
-- Page tagging and filtering</t>
-  </si>
-  <si>
-    <t>- WYSIWYG rich text editor
-- Content previewing</t>
-  </si>
-  <si>
-    <t>- WYSIWYG rich text editor
-- Content previewing including mobile devices
-- Drag and drop visual editing
-- Clean Copy &amp; Paste from Microsoft Word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- WYSIWYG rich text editor
-</t>
-  </si>
-  <si>
-    <t>Uptime SLA's</t>
-  </si>
-  <si>
-    <t>Availablity and reliability of the service and how quick it is to recover and restore from and outage</t>
-  </si>
-  <si>
-    <t>As a product owner I want the CMS platform to have high availablity so that I can avoid a loss of service or downtime.</t>
-  </si>
-  <si>
-    <t>Y
-- SLA (99,9% API Uptime) 
-- 99.95% of API Uptime in Enterprise version</t>
-  </si>
-  <si>
-    <t>Y (99.9%)</t>
-  </si>
-  <si>
-    <t>PaaS dependent (by design)</t>
-  </si>
-  <si>
-    <t>Other Factors</t>
-  </si>
-  <si>
-    <t>Prices competitive at the mid and enterprise levels. Kontent is an option to give further consideration if looking to invest in the additional functionality that comes with a more premium plan.</t>
-  </si>
-  <si>
-    <t>Lack of ISO certifications rule this vendor out as an option at present. But the prices and features appear very competitive at this mid-level so Cosmic JS may be an option to reconsider in the future.</t>
-  </si>
-  <si>
-    <t>Not compatible with Ruby on Rails (.NET platform).
-Seems to be a decoupled rather than "API-first" headless CMS</t>
-  </si>
-  <si>
-    <t>Existing DfE Experience</t>
-  </si>
-  <si>
-    <t>As a product owner I want to reuse existing CMS patterns, templates and workflows so that I minimise the development time for my service.</t>
-  </si>
-  <si>
-    <t>-ILR
--Apprenticeship Fire it up
--Service Manual team</t>
-  </si>
-  <si>
-    <t>No known experience.</t>
-  </si>
-  <si>
-    <t>Used by National Careers Service team.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2873,14 +2141,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2935,7 +2195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3080,63 +2340,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3421,23 +2624,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="68.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="12" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3448,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -3465,7 +2668,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
@@ -3488,7 +2691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
@@ -3511,7 +2714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
@@ -3534,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -3557,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -3580,7 +2783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3603,7 +2806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
@@ -3626,7 +2829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
@@ -3637,7 +2840,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
@@ -3660,7 +2863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
@@ -3683,7 +2886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
@@ -3706,7 +2909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>44</v>
       </c>
@@ -3729,7 +2932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>48</v>
       </c>
@@ -3752,7 +2955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>51</v>
       </c>
@@ -3775,7 +2978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
@@ -3798,7 +3001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>55</v>
       </c>
@@ -3821,7 +3024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>58</v>
       </c>
@@ -3832,7 +3035,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>59</v>
       </c>
@@ -3855,7 +3058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>62</v>
       </c>
@@ -3878,7 +3081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>65</v>
       </c>
@@ -3901,7 +3104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>68</v>
       </c>
@@ -3924,7 +3127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>71</v>
       </c>
@@ -3947,7 +3150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
         <v>74</v>
       </c>
@@ -3970,7 +3173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>77</v>
       </c>
@@ -3993,7 +3196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
         <v>80</v>
       </c>
@@ -4016,7 +3219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>83</v>
       </c>
@@ -4027,7 +3230,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -4046,18 +3249,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D38F71-65DB-42D2-9179-80C1A6B69FBD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M32"/>
   <sheetViews>
@@ -4065,21 +3256,21 @@
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
@@ -4111,7 +3302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
@@ -4131,7 +3322,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
@@ -4167,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
@@ -4203,7 +3394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4219,7 +3410,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -4235,7 +3426,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4255,7 +3446,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4275,7 +3466,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -4295,7 +3486,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -4315,7 +3506,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
@@ -4335,7 +3526,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -4351,7 +3542,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -4371,7 +3562,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
@@ -4391,7 +3582,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -4407,7 +3598,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -4423,7 +3614,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
@@ -4439,7 +3630,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4455,7 +3646,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -4471,7 +3662,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -4491,7 +3682,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
@@ -4507,7 +3698,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -4523,7 +3714,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
@@ -4543,7 +3734,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
@@ -4563,7 +3754,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
@@ -4579,7 +3770,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
@@ -4595,7 +3786,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
@@ -4611,7 +3802,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
@@ -4627,7 +3818,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
@@ -4643,7 +3834,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>106</v>
       </c>
@@ -4659,7 +3850,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -4692,7 +3883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K17"/>
   <sheetViews>
@@ -4700,20 +3891,20 @@
       <selection activeCell="F4" sqref="F4:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F2" s="3" t="s">
         <v>113</v>
       </c>
@@ -4733,7 +3924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
@@ -4755,7 +3946,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>120</v>
       </c>
@@ -4787,7 +3978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>123</v>
       </c>
@@ -4819,7 +4010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>126</v>
       </c>
@@ -4851,7 +4042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>129</v>
       </c>
@@ -4883,7 +4074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>132</v>
       </c>
@@ -4915,7 +4106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>135</v>
       </c>
@@ -4947,7 +4138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>138</v>
       </c>
@@ -4979,7 +4170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>141</v>
       </c>
@@ -5011,7 +4202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>144</v>
       </c>
@@ -5043,7 +4234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>147</v>
       </c>
@@ -5075,7 +4266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>150</v>
       </c>
@@ -5107,7 +4298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>153</v>
       </c>
@@ -5139,7 +4330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="43"/>
     </row>
   </sheetData>
@@ -5148,7 +4339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:J20"/>
   <sheetViews>
@@ -5156,20 +4347,20 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" s="25" t="s">
         <v>157</v>
       </c>
@@ -5195,7 +4386,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -5205,7 +4396,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -5215,7 +4406,7 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" s="25" t="s">
         <v>104</v>
       </c>
@@ -5241,7 +4432,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>118</v>
       </c>
@@ -5254,7 +4445,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>120</v>
       </c>
@@ -5267,7 +4458,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
@@ -5280,7 +4471,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>126</v>
       </c>
@@ -5293,7 +4484,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>129</v>
       </c>
@@ -5306,7 +4497,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
@@ -5319,7 +4510,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
@@ -5332,7 +4523,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>138</v>
       </c>
@@ -5345,7 +4536,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>141</v>
       </c>
@@ -5358,7 +4549,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>144</v>
       </c>
@@ -5371,7 +4562,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>147</v>
       </c>
@@ -5384,7 +4575,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>150</v>
       </c>
@@ -5397,7 +4588,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>153</v>
       </c>
@@ -5410,7 +4601,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>106</v>
       </c>
@@ -5423,7 +4614,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>107</v>
       </c>
@@ -5446,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M19"/>
   <sheetViews>
@@ -5454,22 +4645,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="42" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="33"/>
       <c r="C2" s="40"/>
       <c r="D2" s="35"/>
@@ -5497,7 +4688,7 @@
       </c>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
       <c r="C3" s="40"/>
       <c r="D3" s="35"/>
@@ -5525,7 +4716,7 @@
       </c>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
       <c r="C4" s="40"/>
       <c r="D4" s="35"/>
@@ -5539,7 +4730,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>177</v>
       </c>
@@ -5561,7 +4752,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>178</v>
       </c>
@@ -5597,7 +4788,7 @@
       </c>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -5633,7 +4824,7 @@
       </c>
       <c r="M7" s="33"/>
     </row>
-    <row r="8" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -5669,7 +4860,7 @@
       </c>
       <c r="M8" s="33"/>
     </row>
-    <row r="9" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>169</v>
       </c>
@@ -5705,7 +4896,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
@@ -5741,7 +4932,7 @@
       </c>
       <c r="M10" s="33"/>
     </row>
-    <row r="11" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>193</v>
       </c>
@@ -5777,7 +4968,7 @@
       </c>
       <c r="M11" s="33"/>
     </row>
-    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>196</v>
       </c>
@@ -5813,7 +5004,7 @@
       </c>
       <c r="M12" s="33"/>
     </row>
-    <row r="13" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>200</v>
       </c>
@@ -5849,7 +5040,7 @@
       </c>
       <c r="M13" s="33"/>
     </row>
-    <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>203</v>
       </c>
@@ -5885,7 +5076,7 @@
       </c>
       <c r="M14" s="33"/>
     </row>
-    <row r="15" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>207</v>
       </c>
@@ -5921,7 +5112,7 @@
       </c>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>211</v>
       </c>
@@ -5957,7 +5148,7 @@
       </c>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>214</v>
       </c>
@@ -5993,7 +5184,7 @@
       </c>
       <c r="M17" s="33"/>
     </row>
-    <row r="18" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>217</v>
       </c>
@@ -6029,7 +5220,7 @@
       </c>
       <c r="M18" s="33"/>
     </row>
-    <row r="19" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>220</v>
       </c>
@@ -6071,7 +5262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P23"/>
   <sheetViews>
@@ -6079,19 +5270,19 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="36" t="s">
         <v>223</v>
       </c>
@@ -6132,7 +5323,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6149,7 +5340,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="2:16" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="25" t="s">
         <v>168</v>
       </c>
@@ -6190,7 +5381,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>118</v>
       </c>
@@ -6209,7 +5400,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="33"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>178</v>
       </c>
@@ -6232,7 +5423,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -6255,7 +5446,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -6278,7 +5469,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>169</v>
       </c>
@@ -6301,7 +5492,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
@@ -6324,7 +5515,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>193</v>
       </c>
@@ -6347,7 +5538,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="33"/>
     </row>
-    <row r="12" spans="2:16" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>196</v>
       </c>
@@ -6370,7 +5561,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>200</v>
       </c>
@@ -6393,7 +5584,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>203</v>
       </c>
@@ -6416,7 +5607,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>207</v>
       </c>
@@ -6439,7 +5630,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="33"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>211</v>
       </c>
@@ -6462,7 +5653,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>214</v>
       </c>
@@ -6485,7 +5676,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="33"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>217</v>
       </c>
@@ -6508,7 +5699,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>220</v>
       </c>
@@ -6531,22 +5722,22 @@
       <c r="O19" s="4"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="135" x14ac:dyDescent="0.25">
       <c r="K20" s="48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="90" x14ac:dyDescent="0.25">
       <c r="K21" s="49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="45" x14ac:dyDescent="0.25">
       <c r="K22" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="K23" s="50" t="s">
         <v>244</v>
       </c>
@@ -6562,1085 +5753,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CFD866-DE87-41D5-BE31-43FB6D2DE716}">
-  <dimension ref="B2:L32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="28.77734375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" customWidth="1"/>
-    <col min="9" max="10" width="30.21875" customWidth="1"/>
-    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.21875" style="69" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="270.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="J18" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="K20" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="L20" s="59" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="H21" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="K21" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="L21" s="62" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="64" t="s">
-        <v>380</v>
-      </c>
-      <c r="J25" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="59" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="I27" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>413</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="112.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="K31" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="L31" s="58"/>
-    </row>
-    <row r="32" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{71BC4B22-CCEF-4EA5-8A95-5A3A4D4B5EF9}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{4F8CB76F-DCE3-43A8-97FB-7E485E0FC38D}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{23C6D77B-538B-40AB-A6D4-772DDEB582BE}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{55ED426A-5DA9-4E47-A769-89669434E55B}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{FCB86B0D-9681-4F78-AD71-C398F6C5B7D4}"/>
-    <hyperlink ref="J3" r:id="rId6" xr:uid="{46F94EBA-7865-48C6-B065-4D110AE97818}"/>
-    <hyperlink ref="L3" r:id="rId7" xr:uid="{B6ABF243-587B-4246-8761-BB7C0832C12D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B57151A7873D3B4CB38449F1E4CD2EAA" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e8202c7bfeeae60ce525a5ca4d0fe6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="161ae125-8199-47a3-b5d9-eda3a8f2a061" xmlns:ns4="680bcac6-b14c-4c2b-a58b-c019311aeaad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1abf75ed68cd583d13418a16f207a9e6" ns3:_="" ns4:_="">
     <xsd:import namespace="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
@@ -7843,36 +5971,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4651E139-BFC7-495A-9CCD-06709AD31B99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
-    <ds:schemaRef ds:uri="680bcac6-b14c-4c2b-a58b-c019311aeaad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7895,9 +5997,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4651E139-BFC7-495A-9CCD-06709AD31B99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
+    <ds:schemaRef ds:uri="680bcac6-b14c-4c2b-a58b-c019311aeaad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/common-component-matrix.xlsx
+++ b/documents/common-component-matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\github\architecture\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\architecture\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E4FD6-4EF3-4E1B-9738-18386FA8E02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB4B25-DF7A-4075-AD76-C4A92E4A4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Applications" sheetId="1" r:id="rId1"/>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="432">
   <si>
     <t>Azure Maps</t>
   </si>
@@ -1293,9 +1293,6 @@
     <t>Mapping on Android device</t>
   </si>
   <si>
-    <t>As a product owner I want my map to be accessible on an android device so that users can acess a map whilst on the go</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -1308,9 +1305,6 @@
     <t>Mapping on Apple device</t>
   </si>
   <si>
-    <t>As a product owner I want my map to be accessible on an apple device so that users can acess a map whilst on the go</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -1318,9 +1312,6 @@
   </si>
   <si>
     <t xml:space="preserve">Static image of map </t>
-  </si>
-  <si>
-    <t>As a product owner I want my service to produce a static image of a map when users search for an address so that they can visually view its location</t>
   </si>
   <si>
     <t>L</t>
@@ -1348,36 +1339,24 @@
     <t xml:space="preserve">Interactive map </t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to click on a map and zoom in and out so that they can view the location in more detail</t>
-  </si>
-  <si>
     <t>Street View API</t>
   </si>
   <si>
     <t>Street level view</t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to see real life street imagery of a location so that they can visualise it in context with its surroundings</t>
-  </si>
-  <si>
     <t>URL Launch</t>
   </si>
   <si>
     <t>Hyperlink to launch mapping service</t>
   </si>
   <si>
-    <t>As a product owner I want my service to provide a link to the mapping service so that users can locate the address and pick a mode of transport that is most suited to their needs</t>
-  </si>
-  <si>
     <t>HTTP Embed API</t>
   </si>
   <si>
     <t>Add code to embed interactive or street view onto your webpage</t>
   </si>
   <si>
-    <t>As a product owner I want my service to embed street or interactive maps so that users can use the mapping features directly on the service and not be re-directed to the external mapping application</t>
-  </si>
-  <si>
     <t>Routes:</t>
   </si>
   <si>
@@ -1387,9 +1366,6 @@
     <t>Plan a journey by mode of transport</t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to plan a journey from start to end and select their mode of transport so that they can plan the most effective route</t>
-  </si>
-  <si>
     <t>Y + Mobility</t>
   </si>
   <si>
@@ -1399,27 +1375,18 @@
     <t>Travel times and distance between start and end point(s)</t>
   </si>
   <si>
-    <t>As a product owner I want my users to find out the duration and the distance of their journey so that they can plan their journey more effectively</t>
-  </si>
-  <si>
     <t>Roads along Route</t>
   </si>
   <si>
     <t>Identifies roads along the route</t>
   </si>
   <si>
-    <t>As a product owner I want my service to show users roads along their route so that they can visualise where they are relative to their location</t>
-  </si>
-  <si>
     <t>Isochrone</t>
   </si>
   <si>
     <t>Works out most economical route for each transport method</t>
   </si>
   <si>
-    <t>As a product owner I want my users to select the most economical route for their journey so that they can choose the most effiecient journey which meets their needs</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -1429,9 +1396,6 @@
     <t>Inform on current traffic conditions</t>
   </si>
   <si>
-    <t>As a product I want my users to be informed of any live traffic or incidents that affects their journey so that they can re-plan their journey if required</t>
-  </si>
-  <si>
     <t>Route Service</t>
   </si>
   <si>
@@ -1450,9 +1414,6 @@
     <t>Specify Arrival or Departure times depending on mode of transport</t>
   </si>
   <si>
-    <t>As a a product owner I want my users to be able to specify an arrival or departure time so that they can plan their journey timings</t>
-  </si>
-  <si>
     <t>Places:</t>
   </si>
   <si>
@@ -1462,72 +1423,48 @@
     <t>Returns results of address of search interest</t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to search for a particular place of inetrest so that they can get further information on what they've searched for</t>
-  </si>
-  <si>
     <t>Geocoding</t>
   </si>
   <si>
     <t xml:space="preserve">Convert the address to mapping coordinated </t>
   </si>
   <si>
-    <t>As a product owner I want my service to be able to convert an address entered by user into a mapping coordinate so that they can pinpoint their specifc location</t>
-  </si>
-  <si>
     <t>Geolocation</t>
   </si>
   <si>
     <t>locating users position based on their gps/device location</t>
   </si>
   <si>
-    <t>As a product owner I want my service to allow users to use their current GPS/wifi location so that they can locate their position relative to their end point</t>
-  </si>
-  <si>
     <t>Time Zone</t>
   </si>
   <si>
     <t>Returns journey times in local time</t>
   </si>
   <si>
-    <t>As a product owner I want my service to return local time for a location a user has entered so that they are aware of the local time for their specified location</t>
-  </si>
-  <si>
     <t xml:space="preserve">Batch Search </t>
   </si>
   <si>
     <t>Multiple postcode/address searches in a single transacation</t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to enter multiple addresses or postcodes in a single search so that they can enter all their search criterias in one transaction</t>
-  </si>
-  <si>
     <t>Batch Geocoding</t>
   </si>
   <si>
     <t>Multiple postcode/address searches in a single transacation returning results in coordinates</t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to enter multiple addresses or postcodes in a single search converted into cooardinates so that they can pinpoint the location of their search</t>
-  </si>
-  <si>
     <t xml:space="preserve">Search Along Route </t>
   </si>
   <si>
     <t>Specify Points of Interests along the way</t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to search for points of interest specfic to them along their route so that they can tailor their journey that is of interest to them</t>
-  </si>
-  <si>
     <t>Search Inside Geometry</t>
   </si>
   <si>
     <t>Search within a specified area</t>
   </si>
   <si>
-    <t>As a product owner I want my users to be able to search within a specified geographical area so that they can maximise their search results</t>
-  </si>
-  <si>
     <t>Commercial Vehicle</t>
   </si>
   <si>
@@ -1565,9 +1502,6 @@
   </si>
   <si>
     <t>School Performance Tables</t>
-  </si>
-  <si>
-    <t>Acadamies and Free Schools</t>
   </si>
   <si>
     <t>Maps:</t>
@@ -1653,106 +1587,70 @@
     <t>Enter an address to look up</t>
   </si>
   <si>
-    <t>As a product owner I want my service to allow users to enter all or part of an address so that they can find the full postal address</t>
-  </si>
-  <si>
     <t>Postcode Lookup</t>
   </si>
   <si>
     <t>Enter a postcode to look up</t>
   </si>
   <si>
-    <t>As a product owner I want my service to allow users to enter all or part of a postcode so that they can find the full postal address</t>
-  </si>
-  <si>
     <t>Bulk Postcode Lookup</t>
   </si>
   <si>
     <t>Search for multiple postcodes in one transaction</t>
   </si>
   <si>
-    <t>As a product owner I want my service to allow users to enter multiple postcodes so that they can find the full postal address for multiple postcodes in one transaction</t>
-  </si>
-  <si>
     <t>Nearest Postcode</t>
   </si>
   <si>
     <t>Searches postcodes nearest to an address</t>
   </si>
   <si>
-    <t>As a product owner I want my service to return nearby postcodes related to users search so that they can see the neighbouring postal areas</t>
-  </si>
-  <si>
     <t>Reverse Geocoding</t>
   </si>
   <si>
     <t>Convert a mapping coordinate into an address</t>
   </si>
   <si>
-    <t>As a product owner I want my service to convert a mapping coordinate into an address so that the user can find the full postal address</t>
-  </si>
-  <si>
     <t>Validate a Postcode</t>
   </si>
   <si>
     <t>Check that a postcode is valid</t>
   </si>
   <si>
-    <t>As a product owner I want my service to allow the user to check whether a postcode is valid so that they know the address is valid</t>
-  </si>
-  <si>
     <t>Auto Complete a postcode</t>
   </si>
   <si>
     <t>Completes the postcode that is being entered</t>
   </si>
   <si>
-    <t>As a product owner I want my service to auto complete the postcode as the user enters it so that the user can search more efficiently</t>
-  </si>
-  <si>
     <t>Auto Complete a address</t>
   </si>
   <si>
     <t>Completes the address that is being entered</t>
   </si>
   <si>
-    <t>As a product owner I want my service to auto complete the address as the user enters it so that the user can search more efficiently</t>
-  </si>
-  <si>
     <t>Terminated Postcode Lookup</t>
   </si>
   <si>
     <t>Search postcodes no longer in use</t>
   </si>
   <si>
-    <t>As a product owner I want my service to return postcodes which are no longer in use so that users know they are no longer in use</t>
-  </si>
-  <si>
     <t>Outer Postcode Lookup</t>
   </si>
   <si>
     <t>Search wider postcode area</t>
   </si>
   <si>
-    <t>As a product owner I want my service to allow users to search on the wider postcode area so that they can see all postcodes address within the search boundaries</t>
-  </si>
-  <si>
     <t>LA Lookup</t>
   </si>
   <si>
     <t>Look up a local autority for a postal area</t>
   </si>
   <si>
-    <t>As a product owner I want my service to return the Local Authority of a postcode so that the user know what LA the postcode is in</t>
-  </si>
-  <si>
     <t>Postal Redirection Data</t>
   </si>
   <si>
     <t>Redirect post from current address to another address</t>
-  </si>
-  <si>
-    <t>As a product owner I want my service to link an old address with a new address so that users can have their post redirtected to their new address</t>
   </si>
   <si>
     <t>Y (HomeMovers Option)</t>
@@ -2781,6 +2679,111 @@
   </si>
   <si>
     <t>Used by National Careers Service team.</t>
+  </si>
+  <si>
+    <t>Allow users to enter all or part of an address so that they can find the full postal address</t>
+  </si>
+  <si>
+    <t>Allow users to enter all or part of a postcode so that they can find the full postal address</t>
+  </si>
+  <si>
+    <t>Allow users to enter multiple postcodes so that they can find the full postal address for multiple postcodes in one transaction</t>
+  </si>
+  <si>
+    <t>Return nearby postcodes related to user's search so that they can see the neighbouring postal areas</t>
+  </si>
+  <si>
+    <t>Convert a mapping coordinate into an address so that the user can find the full postal address</t>
+  </si>
+  <si>
+    <t>Auto-complete the postcode as the user enters it so that the user can search more efficiently</t>
+  </si>
+  <si>
+    <t>Auto-complete the address as the user enters it so that the user can search more efficiently</t>
+  </si>
+  <si>
+    <t>Return postcodes which are no longer in use so that users know they are no longer in use</t>
+  </si>
+  <si>
+    <t>Allow users to search on the wider postcode area so that they can see all postcodes address within the search boundaries</t>
+  </si>
+  <si>
+    <t>Link an old address with a new address so that users can have their post redirected to their new address</t>
+  </si>
+  <si>
+    <t>Academies and Free Schools</t>
+  </si>
+  <si>
+    <t>Allow the user to check whether a postcode is valid</t>
+  </si>
+  <si>
+    <t>Auto Complete an address</t>
+  </si>
+  <si>
+    <t>Return the Local Authority of a postcode so that the user knows what LA the postcode is in</t>
+  </si>
+  <si>
+    <t>Provide a map that is accessible on an android device so that users can access a map whilst on the go</t>
+  </si>
+  <si>
+    <t>Provide a map that is accessible on an apple device so that users can acess a map whilst on the go</t>
+  </si>
+  <si>
+    <t>Produce a static image of a map when users search for an address so that they can visually view its location</t>
+  </si>
+  <si>
+    <t>Provide a clickable map with zoom in and out so that they can view the location in more detail</t>
+  </si>
+  <si>
+    <t>To allow users to be able to see real life street imagery of a location so that they can visualise it in context with its surroundings</t>
+  </si>
+  <si>
+    <t>Provide a link to a mapping service so that users can locate the address and pick a mode of transport that is most suited to their needs</t>
+  </si>
+  <si>
+    <t>Embed street or interactive maps in a service so that users can use the mapping features directly on the service and not be re-directed to the external mapping application</t>
+  </si>
+  <si>
+    <t>Enable users to plan a journey from start to end and select their mode of transport so that they can plan the most effective route</t>
+  </si>
+  <si>
+    <t>Enable users to find out the duration and the distance of their journey so that they can plan their journey more effectively</t>
+  </si>
+  <si>
+    <t>Enables users of a service to be shown roads along their route so that they can visualise where they are relative to their location</t>
+  </si>
+  <si>
+    <t>Enable users to select the most economical route for their journey so that they can choose the most effiecient journey which meets their needs</t>
+  </si>
+  <si>
+    <t>Inform users of any live traffic or incidents that affects their journey so that they can re-plan their journey if required</t>
+  </si>
+  <si>
+    <t>Enable users to specify an arrival or departure time so that they can plan their journey timings</t>
+  </si>
+  <si>
+    <t>Enable users to search for a particular place of interest so that they can get further information on what they've searched for</t>
+  </si>
+  <si>
+    <t>Convert an address entered by a user into a mapping coordinate so that the user can pinpoint their specifc location</t>
+  </si>
+  <si>
+    <t>Enable users of a service to use their current GPS/wifi location so that they can locate their position relative to their end point</t>
+  </si>
+  <si>
+    <t>Return local time for a location a user has entered so that they are aware of the local time for their specified location</t>
+  </si>
+  <si>
+    <t>Enable users to enter multiple addresses or postcodes in a single search so that they can enter all their search criteria in one transaction</t>
+  </si>
+  <si>
+    <t>Enable users to enter multiple addresses or postcodes in a single search converted into cooardinates so that they can pinpoint the location of their search</t>
+  </si>
+  <si>
+    <t>Enable users to search for points of interest specfic to them along their route so that they can tailor their journey that is of interest to them</t>
+  </si>
+  <si>
+    <t>Enable users to search within a specified geographical area so that they can maximise their search results</t>
   </si>
 </sst>
 </file>
@@ -2934,7 +2937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2947,14 +2950,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2992,7 +2992,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3001,22 +3001,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3038,15 +3029,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3055,9 +3037,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3071,7 +3050,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3420,23 +3399,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="68.88671875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="68.90625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3447,594 +3426,594 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="18" t="s">
+    </row>
+    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="D7" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D8" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="D9" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D10" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D15" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D16" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="D17" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D18" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D19" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D27" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="D28" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="F30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="G30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="F31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4049,65 +4028,65 @@
   <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.90625" customWidth="1"/>
+    <col min="4" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="12" max="12" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D2" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
@@ -4118,9 +4097,9 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
@@ -4130,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>1</v>
@@ -4154,43 +4133,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4206,9 +4185,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
@@ -4222,17 +4201,17 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -4242,17 +4221,17 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -4262,17 +4241,17 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -4282,17 +4261,17 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -4302,17 +4281,17 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -4322,9 +4301,9 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5"/>
@@ -4338,17 +4317,17 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -4358,17 +4337,17 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -4378,9 +4357,9 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
@@ -4394,9 +4373,9 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
@@ -4410,9 +4389,9 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
@@ -4426,9 +4405,9 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
@@ -4442,9 +4421,9 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
@@ -4458,17 +4437,17 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -4478,9 +4457,9 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="5"/>
@@ -4494,9 +4473,9 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -4510,17 +4489,17 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -4530,17 +4509,17 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -4550,9 +4529,9 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
@@ -4566,9 +4545,9 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="4"/>
@@ -4582,9 +4561,9 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
@@ -4598,9 +4577,9 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
@@ -4614,9 +4593,9 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
@@ -4630,44 +4609,44 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10" t="s">
-        <v>108</v>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -4681,60 +4660,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="44.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="9" width="24.6328125" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4742,392 +4721,389 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D15" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="43"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5143,107 +5119,107 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="10" max="10" width="29.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>120</v>
+        <v>96</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5254,9 +5230,9 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>123</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5267,9 +5243,9 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>126</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5280,9 +5256,9 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>129</v>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5293,9 +5269,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>132</v>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5306,9 +5282,9 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>135</v>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -5319,22 +5295,22 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>141</v>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5345,9 +5321,9 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>144</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5358,9 +5334,9 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>147</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -5371,9 +5347,9 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>150</v>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -5384,9 +5360,9 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
-        <v>153</v>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5397,33 +5373,33 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>166</v>
+        <v>84</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="31" t="s">
-        <v>167</v>
+      <c r="I20" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -5441,616 +5417,616 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="42" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="35" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="C14" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="D14" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="2:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="C15" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="5" t="s">
+      <c r="D15" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="2:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="2:13" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="I18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="D19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="M14" s="33"/>
-    </row>
-    <row r="15" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="33"/>
-    </row>
-    <row r="16" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>47</v>
+      <c r="E19" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="M19" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6066,61 +6042,61 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="44" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="O2" s="45" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
+    <row r="2" spans="2:16" s="36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -6134,94 +6110,94 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="2:16" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>178</v>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="2:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>182</v>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6232,19 +6208,19 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>185</v>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -6255,19 +6231,19 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="33"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>169</v>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6278,19 +6254,19 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>190</v>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -6301,19 +6277,19 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>193</v>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6324,42 +6300,42 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="2:16" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>196</v>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="2:16" ht="39" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>200</v>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6370,42 +6346,42 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>203</v>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>207</v>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6416,19 +6392,19 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="33"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>211</v>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -6439,19 +6415,19 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="33"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>214</v>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -6462,19 +6438,19 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="33"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>217</v>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -6485,57 +6461,57 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="33"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
-        <v>220</v>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="33"/>
-    </row>
-    <row r="20" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="K20" s="48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="K21" s="49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="K22" s="50" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="K23" s="50" t="s">
-        <v>244</v>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="2:16" ht="116" x14ac:dyDescent="0.35">
+      <c r="K20" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="87" x14ac:dyDescent="0.35">
+      <c r="K21" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K22" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="K23" s="42" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6553,1061 +6529,1061 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11F00D1-5894-4EDF-B883-7004CBBD10B4}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" customWidth="1"/>
-    <col min="9" max="10" width="30.21875" customWidth="1"/>
-    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.21875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" customWidth="1"/>
+    <col min="8" max="8" width="36.54296875" customWidth="1"/>
+    <col min="9" max="10" width="30.1796875" customWidth="1"/>
+    <col min="11" max="11" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1796875" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="2:12" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="56" t="s">
-        <v>262</v>
+      <c r="F2" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="406" x14ac:dyDescent="0.35">
+      <c r="B4" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="48" t="s">
+        <v>228</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>268</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>272</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>273</v>
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>276</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B7" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B11" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="55" t="s">
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D17" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
+      <c r="G17" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="H17" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="I17" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="J17" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="K17" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="L17" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
+    </row>
+    <row r="18" spans="2:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="G18" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="H18" s="53" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="55" t="s">
+      <c r="I18" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="J18" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="L18" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="10" t="s">
+    </row>
+    <row r="19" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
+      <c r="C19" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="55" t="s">
+      <c r="K19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="55" t="s">
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="I20" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="J20" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="K20" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="L20" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+    </row>
+    <row r="21" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="216" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="G21" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="60" t="s">
+      <c r="H21" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="I21" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="J21" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="K21" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="L21" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="K17" s="61" t="s">
+    </row>
+    <row r="22" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="C22" s="12" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
+      <c r="D22" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="G22" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="61" t="s">
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="L22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="C23" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="D23" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="J18" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="K18" s="61" t="s">
+      <c r="E23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="G23" s="56" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="K20" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="L20" s="59" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="H21" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="K21" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="L21" s="62" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>366</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>370</v>
+      <c r="L23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B24" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>378</v>
+        <v>338</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>379</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="64" t="s">
-        <v>380</v>
-      </c>
-      <c r="J25" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>382</v>
+      <c r="I25" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="55" t="s">
+        <v>348</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>385</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="L29" s="53" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="59" t="s">
+      <c r="L30" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+    <row r="31" spans="2:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="I27" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>413</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="1"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="18" t="s">
-        <v>423</v>
+      <c r="H31" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="K31" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="L31" s="58"/>
-    </row>
-    <row r="32" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="13" t="s">
-        <v>427</v>
+      <c r="J31" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>428</v>
+        <v>36</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>394</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>430</v>
+        <v>396</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7631,15 +7607,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B57151A7873D3B4CB38449F1E4CD2EAA" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e8202c7bfeeae60ce525a5ca4d0fe6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="161ae125-8199-47a3-b5d9-eda3a8f2a061" xmlns:ns4="680bcac6-b14c-4c2b-a58b-c019311aeaad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1abf75ed68cd583d13418a16f207a9e6" ns3:_="" ns4:_="">
     <xsd:import namespace="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
@@ -7842,32 +7809,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32AD9959-A697-4819-834E-1AB73008AA4B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="680bcac6-b14c-4c2b-a58b-c019311aeaad"/>
+    <ds:schemaRef ds:uri="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="161ae125-8199-47a3-b5d9-eda3a8f2a061"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="680bcac6-b14c-4c2b-a58b-c019311aeaad"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4651E139-BFC7-495A-9CCD-06709AD31B99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7884,4 +7852,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBD369E-6A68-4C96-8DEA-0EC45C5264AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>